--- a/src/ae/res/srcout.xlsx
+++ b/src/ae/res/srcout.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Приложение 1 (2 листа)" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="List1" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -20,12 +20,12 @@
     <definedName name="name2">'Приложение 1 (2 листа)'!$C$9:$D$10</definedName>
     <definedName name="МесОтчета">[1]Лист1!$K$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t xml:space="preserve">Расчетный период:  </t>
   </si>
@@ -162,9 +162,6 @@
     <t>дсп_3_4_1</t>
   </si>
   <si>
-    <t>Декабрь  2016</t>
-  </si>
-  <si>
     <t>Абонент 02262002 "Нью сити инвестментс ЛТД"</t>
   </si>
 </sst>
@@ -172,6 +169,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-419]mmmm\ yyyy;@"/>
+  </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -317,12 +317,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -337,6 +331,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -665,13 +665,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист4">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+  <sheetPr codeName="Лист4"/>
   <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -735,7 +733,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="19.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -748,10 +746,10 @@
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="23"/>
+      <c r="C10" s="27">
+        <v>42675</v>
+      </c>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="4" t="s">
@@ -768,73 +766,88 @@
       <c r="K12" s="4"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
     </row>
     <row r="15" spans="1:18" s="6" customFormat="1" ht="26.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="13">
-        <v>42705</v>
+        <f>C10</f>
+        <v>42675</v>
       </c>
       <c r="C15" s="13">
-        <v>42706</v>
+        <f>B15+1</f>
+        <v>42676</v>
       </c>
       <c r="D15" s="13">
-        <v>42707</v>
+        <f t="shared" ref="D15:P15" si="0">C15+1</f>
+        <v>42677</v>
       </c>
       <c r="E15" s="13">
-        <v>42708</v>
+        <f t="shared" si="0"/>
+        <v>42678</v>
       </c>
       <c r="F15" s="13">
-        <v>42709</v>
+        <f t="shared" si="0"/>
+        <v>42679</v>
       </c>
       <c r="G15" s="13">
-        <v>42710</v>
+        <f t="shared" si="0"/>
+        <v>42680</v>
       </c>
       <c r="H15" s="13">
-        <v>42711</v>
+        <f t="shared" si="0"/>
+        <v>42681</v>
       </c>
       <c r="I15" s="13">
-        <v>42712</v>
+        <f t="shared" si="0"/>
+        <v>42682</v>
       </c>
       <c r="J15" s="13">
-        <v>42713</v>
+        <f t="shared" si="0"/>
+        <v>42683</v>
       </c>
       <c r="K15" s="13">
-        <v>42714</v>
+        <f t="shared" si="0"/>
+        <v>42684</v>
       </c>
       <c r="L15" s="13">
-        <v>42715</v>
+        <f t="shared" si="0"/>
+        <v>42685</v>
       </c>
       <c r="M15" s="13">
-        <v>42716</v>
+        <f t="shared" si="0"/>
+        <v>42686</v>
       </c>
       <c r="N15" s="13">
-        <v>42717</v>
+        <f t="shared" si="0"/>
+        <v>42687</v>
       </c>
       <c r="O15" s="13">
-        <v>42718</v>
+        <f t="shared" si="0"/>
+        <v>42688</v>
       </c>
       <c r="P15" s="13">
-        <v>42719</v>
+        <f t="shared" si="0"/>
+        <v>42689</v>
       </c>
       <c r="Q15" s="5"/>
     </row>
@@ -843,63 +856,63 @@
         <v>2</v>
       </c>
       <c r="B16" s="15">
-        <f>Лист1!A1</f>
-        <v>178.20000000000002</v>
+        <f>List1!A1</f>
+        <v>250.2</v>
       </c>
       <c r="C16" s="15">
-        <f>Лист1!A25</f>
+        <f>List1!A25</f>
         <v>164.7</v>
       </c>
       <c r="D16" s="15">
-        <f>Лист1!A49</f>
+        <f>List1!A49</f>
         <v>188.10000000000002</v>
       </c>
       <c r="E16" s="15">
-        <f>Лист1!A73</f>
+        <f>List1!A73</f>
         <v>166.5</v>
       </c>
       <c r="F16" s="15">
-        <f>Лист1!A97</f>
+        <f>List1!A97</f>
         <v>152.10000000000002</v>
       </c>
       <c r="G16" s="15">
-        <f>Лист1!A121</f>
+        <f>List1!A121</f>
         <v>175.5</v>
       </c>
       <c r="H16" s="15">
-        <f>Лист1!A145</f>
+        <f>List1!A145</f>
         <v>177.3</v>
       </c>
       <c r="I16" s="15">
-        <f>Лист1!A169</f>
+        <f>List1!A169</f>
         <v>183.60000000000002</v>
       </c>
       <c r="J16" s="15">
-        <f>Лист1!A193</f>
+        <f>List1!A193</f>
         <v>168.3</v>
       </c>
       <c r="K16" s="15">
-        <f>Лист1!A217</f>
+        <f>List1!A217</f>
         <v>179.10000000000002</v>
       </c>
       <c r="L16" s="15">
-        <f>Лист1!A241</f>
+        <f>List1!A241</f>
         <v>160.20000000000002</v>
       </c>
       <c r="M16" s="15">
-        <f>Лист1!A265</f>
+        <f>List1!A265</f>
         <v>159.30000000000001</v>
       </c>
       <c r="N16" s="15">
-        <f>Лист1!A289</f>
+        <f>List1!A289</f>
         <v>184.5</v>
       </c>
       <c r="O16" s="15">
-        <f>Лист1!A313</f>
+        <f>List1!A313</f>
         <v>190.8</v>
       </c>
       <c r="P16" s="15">
-        <f>Лист1!A337</f>
+        <f>List1!A337</f>
         <v>193.50000000000003</v>
       </c>
       <c r="Q16" s="18"/>
@@ -909,63 +922,63 @@
         <v>3</v>
       </c>
       <c r="B17" s="15">
-        <f>Лист1!A2</f>
+        <f>List1!A2</f>
         <v>179.10000000000002</v>
       </c>
       <c r="C17" s="15">
-        <f>Лист1!A26</f>
+        <f>List1!A26</f>
         <v>165.6</v>
       </c>
       <c r="D17" s="15">
-        <f>Лист1!A50</f>
+        <f>List1!A50</f>
         <v>176.4</v>
       </c>
       <c r="E17" s="15">
-        <f>Лист1!A74</f>
+        <f>List1!A74</f>
         <v>164.7</v>
       </c>
       <c r="F17" s="15">
-        <f>Лист1!A98</f>
+        <f>List1!A98</f>
         <v>153</v>
       </c>
       <c r="G17" s="15">
-        <f>Лист1!A122</f>
+        <f>List1!A122</f>
         <v>184.5</v>
       </c>
       <c r="H17" s="15">
-        <f>Лист1!A146</f>
+        <f>List1!A146</f>
         <v>175.5</v>
       </c>
       <c r="I17" s="15">
-        <f>Лист1!A170</f>
+        <f>List1!A170</f>
         <v>186.3</v>
       </c>
       <c r="J17" s="15">
-        <f>Лист1!A194</f>
+        <f>List1!A194</f>
         <v>168.3</v>
       </c>
       <c r="K17" s="15">
-        <f>Лист1!A218</f>
+        <f>List1!A218</f>
         <v>184.5</v>
       </c>
       <c r="L17" s="15">
-        <f>Лист1!A242</f>
+        <f>List1!A242</f>
         <v>161.10000000000002</v>
       </c>
       <c r="M17" s="15">
-        <f>Лист1!A266</f>
+        <f>List1!A266</f>
         <v>158.4</v>
       </c>
       <c r="N17" s="15">
-        <f>Лист1!A290</f>
+        <f>List1!A290</f>
         <v>180.9</v>
       </c>
       <c r="O17" s="15">
-        <f>Лист1!A314</f>
+        <f>List1!A314</f>
         <v>193.50000000000003</v>
       </c>
       <c r="P17" s="15">
-        <f>Лист1!A338</f>
+        <f>List1!A338</f>
         <v>191.70000000000002</v>
       </c>
       <c r="Q17" s="7"/>
@@ -975,63 +988,63 @@
         <v>4</v>
       </c>
       <c r="B18" s="15">
-        <f>Лист1!A3</f>
+        <f>List1!A3</f>
         <v>176.4</v>
       </c>
       <c r="C18" s="15">
-        <f>Лист1!A27</f>
+        <f>List1!A27</f>
         <v>164.7</v>
       </c>
       <c r="D18" s="15">
-        <f>Лист1!A51</f>
+        <f>List1!A51</f>
         <v>171.9</v>
       </c>
       <c r="E18" s="15">
-        <f>Лист1!A75</f>
+        <f>List1!A75</f>
         <v>162.9</v>
       </c>
       <c r="F18" s="15">
-        <f>Лист1!A99</f>
+        <f>List1!A99</f>
         <v>154.80000000000001</v>
       </c>
       <c r="G18" s="15">
-        <f>Лист1!A123</f>
+        <f>List1!A123</f>
         <v>189.00000000000003</v>
       </c>
       <c r="H18" s="15">
-        <f>Лист1!A147</f>
+        <f>List1!A147</f>
         <v>174.6</v>
       </c>
       <c r="I18" s="15">
-        <f>Лист1!A171</f>
+        <f>List1!A171</f>
         <v>180.9</v>
       </c>
       <c r="J18" s="15">
-        <f>Лист1!A195</f>
+        <f>List1!A195</f>
         <v>162.9</v>
       </c>
       <c r="K18" s="15">
-        <f>Лист1!A219</f>
+        <f>List1!A219</f>
         <v>177.3</v>
       </c>
       <c r="L18" s="15">
-        <f>Лист1!A243</f>
+        <f>List1!A243</f>
         <v>161.10000000000002</v>
       </c>
       <c r="M18" s="15">
-        <f>Лист1!A267</f>
+        <f>List1!A267</f>
         <v>159.30000000000001</v>
       </c>
       <c r="N18" s="15">
-        <f>Лист1!A291</f>
+        <f>List1!A291</f>
         <v>176.4</v>
       </c>
       <c r="O18" s="15">
-        <f>Лист1!A315</f>
+        <f>List1!A315</f>
         <v>191.70000000000002</v>
       </c>
       <c r="P18" s="15">
-        <f>Лист1!A339</f>
+        <f>List1!A339</f>
         <v>191.70000000000002</v>
       </c>
       <c r="Q18" s="7"/>
@@ -1041,63 +1054,63 @@
         <v>5</v>
       </c>
       <c r="B19" s="15">
-        <f>Лист1!A4</f>
+        <f>List1!A4</f>
         <v>176.4</v>
       </c>
       <c r="C19" s="15">
-        <f>Лист1!A28</f>
+        <f>List1!A28</f>
         <v>164.7</v>
       </c>
       <c r="D19" s="15">
-        <f>Лист1!A52</f>
+        <f>List1!A52</f>
         <v>168.3</v>
       </c>
       <c r="E19" s="15">
-        <f>Лист1!A76</f>
+        <f>List1!A76</f>
         <v>162.00000000000003</v>
       </c>
       <c r="F19" s="15">
-        <f>Лист1!A100</f>
+        <f>List1!A100</f>
         <v>154.80000000000001</v>
       </c>
       <c r="G19" s="15">
-        <f>Лист1!A124</f>
+        <f>List1!A124</f>
         <v>184.5</v>
       </c>
       <c r="H19" s="15">
-        <f>Лист1!A148</f>
+        <f>List1!A148</f>
         <v>174.6</v>
       </c>
       <c r="I19" s="15">
-        <f>Лист1!A172</f>
+        <f>List1!A172</f>
         <v>177.3</v>
       </c>
       <c r="J19" s="15">
-        <f>Лист1!A196</f>
+        <f>List1!A196</f>
         <v>161.10000000000002</v>
       </c>
       <c r="K19" s="15">
-        <f>Лист1!A220</f>
+        <f>List1!A220</f>
         <v>172.8</v>
       </c>
       <c r="L19" s="15">
-        <f>Лист1!A244</f>
+        <f>List1!A244</f>
         <v>157.50000000000003</v>
       </c>
       <c r="M19" s="15">
-        <f>Лист1!A268</f>
+        <f>List1!A268</f>
         <v>159.30000000000001</v>
       </c>
       <c r="N19" s="15">
-        <f>Лист1!A292</f>
+        <f>List1!A292</f>
         <v>180</v>
       </c>
       <c r="O19" s="15">
-        <f>Лист1!A316</f>
+        <f>List1!A316</f>
         <v>183.60000000000002</v>
       </c>
       <c r="P19" s="15">
-        <f>Лист1!A340</f>
+        <f>List1!A340</f>
         <v>189.00000000000003</v>
       </c>
       <c r="Q19" s="7"/>
@@ -1107,63 +1120,63 @@
         <v>6</v>
       </c>
       <c r="B20" s="15">
-        <f>Лист1!A5</f>
+        <f>List1!A5</f>
         <v>177.3</v>
       </c>
       <c r="C20" s="15">
-        <f>Лист1!A29</f>
+        <f>List1!A29</f>
         <v>165.6</v>
       </c>
       <c r="D20" s="15">
-        <f>Лист1!A53</f>
+        <f>List1!A53</f>
         <v>171</v>
       </c>
       <c r="E20" s="15">
-        <f>Лист1!A77</f>
+        <f>List1!A77</f>
         <v>162</v>
       </c>
       <c r="F20" s="15">
-        <f>Лист1!A101</f>
+        <f>List1!A101</f>
         <v>144.9</v>
       </c>
       <c r="G20" s="15">
-        <f>Лист1!A125</f>
+        <f>List1!A125</f>
         <v>181.8</v>
       </c>
       <c r="H20" s="15">
-        <f>Лист1!A149</f>
+        <f>List1!A149</f>
         <v>173.70000000000002</v>
       </c>
       <c r="I20" s="15">
-        <f>Лист1!A173</f>
+        <f>List1!A173</f>
         <v>167.4</v>
       </c>
       <c r="J20" s="15">
-        <f>Лист1!A197</f>
+        <f>List1!A197</f>
         <v>161.10000000000002</v>
       </c>
       <c r="K20" s="15">
-        <f>Лист1!A221</f>
+        <f>List1!A221</f>
         <v>172.8</v>
       </c>
       <c r="L20" s="15">
-        <f>Лист1!A245</f>
+        <f>List1!A245</f>
         <v>159.30000000000001</v>
       </c>
       <c r="M20" s="15">
-        <f>Лист1!A269</f>
+        <f>List1!A269</f>
         <v>160.20000000000002</v>
       </c>
       <c r="N20" s="15">
-        <f>Лист1!A293</f>
+        <f>List1!A293</f>
         <v>180</v>
       </c>
       <c r="O20" s="15">
-        <f>Лист1!A317</f>
+        <f>List1!A317</f>
         <v>183.60000000000002</v>
       </c>
       <c r="P20" s="15">
-        <f>Лист1!A341</f>
+        <f>List1!A341</f>
         <v>190.8</v>
       </c>
       <c r="Q20" s="7"/>
@@ -1173,63 +1186,63 @@
         <v>7</v>
       </c>
       <c r="B21" s="15">
-        <f>Лист1!A6</f>
+        <f>List1!A6</f>
         <v>175.5</v>
       </c>
       <c r="C21" s="15">
-        <f>Лист1!A30</f>
+        <f>List1!A30</f>
         <v>166.5</v>
       </c>
       <c r="D21" s="15">
-        <f>Лист1!A54</f>
+        <f>List1!A54</f>
         <v>170.1</v>
       </c>
       <c r="E21" s="15">
-        <f>Лист1!A78</f>
+        <f>List1!A78</f>
         <v>162.9</v>
       </c>
       <c r="F21" s="15">
-        <f>Лист1!A102</f>
+        <f>List1!A102</f>
         <v>144.9</v>
       </c>
       <c r="G21" s="15">
-        <f>Лист1!A126</f>
+        <f>List1!A126</f>
         <v>180</v>
       </c>
       <c r="H21" s="15">
-        <f>Лист1!A150</f>
+        <f>List1!A150</f>
         <v>171</v>
       </c>
       <c r="I21" s="15">
-        <f>Лист1!A174</f>
+        <f>List1!A174</f>
         <v>171.9</v>
       </c>
       <c r="J21" s="15">
-        <f>Лист1!A198</f>
+        <f>List1!A198</f>
         <v>159.30000000000001</v>
       </c>
       <c r="K21" s="15">
-        <f>Лист1!A222</f>
+        <f>List1!A222</f>
         <v>172.8</v>
       </c>
       <c r="L21" s="15">
-        <f>Лист1!A246</f>
+        <f>List1!A246</f>
         <v>162.9</v>
       </c>
       <c r="M21" s="15">
-        <f>Лист1!A270</f>
+        <f>List1!A270</f>
         <v>159.30000000000001</v>
       </c>
       <c r="N21" s="15">
-        <f>Лист1!A294</f>
+        <f>List1!A294</f>
         <v>180.9</v>
       </c>
       <c r="O21" s="15">
-        <f>Лист1!A318</f>
+        <f>List1!A318</f>
         <v>183.60000000000002</v>
       </c>
       <c r="P21" s="15">
-        <f>Лист1!A342</f>
+        <f>List1!A342</f>
         <v>189.9</v>
       </c>
       <c r="Q21" s="7"/>
@@ -1239,63 +1252,63 @@
         <v>8</v>
       </c>
       <c r="B22" s="15">
-        <f>Лист1!A7</f>
+        <f>List1!A7</f>
         <v>177.3</v>
       </c>
       <c r="C22" s="15">
-        <f>Лист1!A31</f>
+        <f>List1!A31</f>
         <v>168.3</v>
       </c>
       <c r="D22" s="15">
-        <f>Лист1!A55</f>
+        <f>List1!A55</f>
         <v>169.2</v>
       </c>
       <c r="E22" s="15">
-        <f>Лист1!A79</f>
+        <f>List1!A79</f>
         <v>162.00000000000003</v>
       </c>
       <c r="F22" s="15">
-        <f>Лист1!A103</f>
+        <f>List1!A103</f>
         <v>146.70000000000002</v>
       </c>
       <c r="G22" s="15">
-        <f>Лист1!A127</f>
+        <f>List1!A127</f>
         <v>182.70000000000002</v>
       </c>
       <c r="H22" s="15">
-        <f>Лист1!A151</f>
+        <f>List1!A151</f>
         <v>174.6</v>
       </c>
       <c r="I22" s="15">
-        <f>Лист1!A175</f>
+        <f>List1!A175</f>
         <v>176.4</v>
       </c>
       <c r="J22" s="15">
-        <f>Лист1!A199</f>
+        <f>List1!A199</f>
         <v>163.79999999999998</v>
       </c>
       <c r="K22" s="15">
-        <f>Лист1!A223</f>
+        <f>List1!A223</f>
         <v>172.8</v>
       </c>
       <c r="L22" s="15">
-        <f>Лист1!A247</f>
+        <f>List1!A247</f>
         <v>159.30000000000001</v>
       </c>
       <c r="M22" s="15">
-        <f>Лист1!A271</f>
+        <f>List1!A271</f>
         <v>165.6</v>
       </c>
       <c r="N22" s="15">
-        <f>Лист1!A295</f>
+        <f>List1!A295</f>
         <v>185.4</v>
       </c>
       <c r="O22" s="15">
-        <f>Лист1!A319</f>
+        <f>List1!A319</f>
         <v>184.5</v>
       </c>
       <c r="P22" s="15">
-        <f>Лист1!A343</f>
+        <f>List1!A343</f>
         <v>194.40000000000003</v>
       </c>
       <c r="Q22" s="7"/>
@@ -1305,63 +1318,63 @@
         <v>9</v>
       </c>
       <c r="B23" s="15">
-        <f>Лист1!A8</f>
+        <f>List1!A8</f>
         <v>203.4</v>
       </c>
       <c r="C23" s="15">
-        <f>Лист1!A32</f>
+        <f>List1!A32</f>
         <v>201.6</v>
       </c>
       <c r="D23" s="15">
-        <f>Лист1!A56</f>
+        <f>List1!A56</f>
         <v>171</v>
       </c>
       <c r="E23" s="15">
-        <f>Лист1!A80</f>
+        <f>List1!A80</f>
         <v>159.30000000000001</v>
       </c>
       <c r="F23" s="15">
-        <f>Лист1!A104</f>
+        <f>List1!A104</f>
         <v>171.9</v>
       </c>
       <c r="G23" s="15">
-        <f>Лист1!A128</f>
+        <f>List1!A128</f>
         <v>215.1</v>
       </c>
       <c r="H23" s="15">
-        <f>Лист1!A152</f>
+        <f>List1!A152</f>
         <v>206.1</v>
       </c>
       <c r="I23" s="15">
-        <f>Лист1!A176</f>
+        <f>List1!A176</f>
         <v>218.7</v>
       </c>
       <c r="J23" s="15">
-        <f>Лист1!A200</f>
+        <f>List1!A200</f>
         <v>197.10000000000002</v>
       </c>
       <c r="K23" s="15">
-        <f>Лист1!A224</f>
+        <f>List1!A224</f>
         <v>189.9</v>
       </c>
       <c r="L23" s="15">
-        <f>Лист1!A248</f>
+        <f>List1!A248</f>
         <v>159.30000000000001</v>
       </c>
       <c r="M23" s="15">
-        <f>Лист1!A272</f>
+        <f>List1!A272</f>
         <v>198.00000000000003</v>
       </c>
       <c r="N23" s="15">
-        <f>Лист1!A296</f>
+        <f>List1!A296</f>
         <v>212.4</v>
       </c>
       <c r="O23" s="15">
-        <f>Лист1!A320</f>
+        <f>List1!A320</f>
         <v>209.70000000000002</v>
       </c>
       <c r="P23" s="15">
-        <f>Лист1!A344</f>
+        <f>List1!A344</f>
         <v>234.9</v>
       </c>
       <c r="Q23" s="7"/>
@@ -1371,63 +1384,63 @@
         <v>10</v>
       </c>
       <c r="B24" s="15">
-        <f>Лист1!A9</f>
+        <f>List1!A9</f>
         <v>267.3</v>
       </c>
       <c r="C24" s="15">
-        <f>Лист1!A33</f>
+        <f>List1!A33</f>
         <v>256.5</v>
       </c>
       <c r="D24" s="15">
-        <f>Лист1!A57</f>
+        <f>List1!A57</f>
         <v>162.9</v>
       </c>
       <c r="E24" s="15">
-        <f>Лист1!A81</f>
+        <f>List1!A81</f>
         <v>161.10000000000002</v>
       </c>
       <c r="F24" s="15">
-        <f>Лист1!A105</f>
+        <f>List1!A105</f>
         <v>237.60000000000002</v>
       </c>
       <c r="G24" s="15">
-        <f>Лист1!A129</f>
+        <f>List1!A129</f>
         <v>263.70000000000005</v>
       </c>
       <c r="H24" s="15">
-        <f>Лист1!A153</f>
+        <f>List1!A153</f>
         <v>261.00000000000006</v>
       </c>
       <c r="I24" s="15">
-        <f>Лист1!A177</f>
+        <f>List1!A177</f>
         <v>265.50000000000006</v>
       </c>
       <c r="J24" s="15">
-        <f>Лист1!A201</f>
+        <f>List1!A201</f>
         <v>256.5</v>
       </c>
       <c r="K24" s="15">
-        <f>Лист1!A225</f>
+        <f>List1!A225</f>
         <v>189.00000000000003</v>
       </c>
       <c r="L24" s="15">
-        <f>Лист1!A249</f>
+        <f>List1!A249</f>
         <v>160.20000000000002</v>
       </c>
       <c r="M24" s="15">
-        <f>Лист1!A273</f>
+        <f>List1!A273</f>
         <v>263.70000000000005</v>
       </c>
       <c r="N24" s="15">
-        <f>Лист1!A297</f>
+        <f>List1!A297</f>
         <v>264.60000000000002</v>
       </c>
       <c r="O24" s="15">
-        <f>Лист1!A321</f>
+        <f>List1!A321</f>
         <v>263.70000000000005</v>
       </c>
       <c r="P24" s="15">
-        <f>Лист1!A345</f>
+        <f>List1!A345</f>
         <v>283.50000000000006</v>
       </c>
       <c r="Q24" s="7"/>
@@ -1437,63 +1450,63 @@
         <v>11</v>
       </c>
       <c r="B25" s="15">
-        <f>Лист1!A10</f>
+        <f>List1!A10</f>
         <v>312.29999999999995</v>
       </c>
       <c r="C25" s="15">
-        <f>Лист1!A34</f>
+        <f>List1!A34</f>
         <v>306.90000000000003</v>
       </c>
       <c r="D25" s="15">
-        <f>Лист1!A58</f>
+        <f>List1!A58</f>
         <v>161.1</v>
       </c>
       <c r="E25" s="15">
-        <f>Лист1!A82</f>
+        <f>List1!A82</f>
         <v>168.3</v>
       </c>
       <c r="F25" s="15">
-        <f>Лист1!A106</f>
+        <f>List1!A106</f>
         <v>313.2</v>
       </c>
       <c r="G25" s="15">
-        <f>Лист1!A130</f>
+        <f>List1!A130</f>
         <v>315.89999999999998</v>
       </c>
       <c r="H25" s="15">
-        <f>Лист1!A154</f>
+        <f>List1!A154</f>
         <v>322.2</v>
       </c>
       <c r="I25" s="15">
-        <f>Лист1!A178</f>
+        <f>List1!A178</f>
         <v>311.40000000000003</v>
       </c>
       <c r="J25" s="15">
-        <f>Лист1!A202</f>
+        <f>List1!A202</f>
         <v>306.90000000000003</v>
       </c>
       <c r="K25" s="15">
-        <f>Лист1!A226</f>
+        <f>List1!A226</f>
         <v>200.70000000000002</v>
       </c>
       <c r="L25" s="15">
-        <f>Лист1!A250</f>
+        <f>List1!A250</f>
         <v>162.9</v>
       </c>
       <c r="M25" s="15">
-        <f>Лист1!A274</f>
+        <f>List1!A274</f>
         <v>320.39999999999998</v>
       </c>
       <c r="N25" s="15">
-        <f>Лист1!A298</f>
+        <f>List1!A298</f>
         <v>309.60000000000002</v>
       </c>
       <c r="O25" s="15">
-        <f>Лист1!A322</f>
+        <f>List1!A322</f>
         <v>294.3</v>
       </c>
       <c r="P25" s="15">
-        <f>Лист1!A346</f>
+        <f>List1!A346</f>
         <v>327.59999999999997</v>
       </c>
       <c r="Q25" s="7"/>
@@ -1503,63 +1516,63 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <f>Лист1!A11</f>
+        <f>List1!A11</f>
         <v>350.1</v>
       </c>
       <c r="C26" s="15">
-        <f>Лист1!A35</f>
+        <f>List1!A35</f>
         <v>340.2</v>
       </c>
       <c r="D26" s="15">
-        <f>Лист1!A59</f>
+        <f>List1!A59</f>
         <v>194.40000000000003</v>
       </c>
       <c r="E26" s="15">
-        <f>Лист1!A83</f>
+        <f>List1!A83</f>
         <v>194.4</v>
       </c>
       <c r="F26" s="15">
-        <f>Лист1!A107</f>
+        <f>List1!A107</f>
         <v>359.1</v>
       </c>
       <c r="G26" s="15">
-        <f>Лист1!A131</f>
+        <f>List1!A131</f>
         <v>342.9</v>
       </c>
       <c r="H26" s="15">
-        <f>Лист1!A155</f>
+        <f>List1!A155</f>
         <v>359.1</v>
       </c>
       <c r="I26" s="15">
-        <f>Лист1!A179</f>
+        <f>List1!A179</f>
         <v>344.7</v>
       </c>
       <c r="J26" s="15">
-        <f>Лист1!A203</f>
+        <f>List1!A203</f>
         <v>335.7</v>
       </c>
       <c r="K26" s="15">
-        <f>Лист1!A227</f>
+        <f>List1!A227</f>
         <v>207</v>
       </c>
       <c r="L26" s="15">
-        <f>Лист1!A251</f>
+        <f>List1!A251</f>
         <v>173.70000000000002</v>
       </c>
       <c r="M26" s="15">
-        <f>Лист1!A275</f>
+        <f>List1!A275</f>
         <v>341.1</v>
       </c>
       <c r="N26" s="15">
-        <f>Лист1!A299</f>
+        <f>List1!A299</f>
         <v>355.5</v>
       </c>
       <c r="O26" s="15">
-        <f>Лист1!A323</f>
+        <f>List1!A323</f>
         <v>342</v>
       </c>
       <c r="P26" s="15">
-        <f>Лист1!A347</f>
+        <f>List1!A347</f>
         <v>347.40000000000003</v>
       </c>
       <c r="Q26" s="7"/>
@@ -1569,63 +1582,63 @@
         <v>13</v>
       </c>
       <c r="B27" s="15">
-        <f>Лист1!A12</f>
+        <f>List1!A12</f>
         <v>377.1</v>
       </c>
       <c r="C27" s="15">
-        <f>Лист1!A36</f>
+        <f>List1!A36</f>
         <v>369.90000000000003</v>
       </c>
       <c r="D27" s="15">
-        <f>Лист1!A60</f>
+        <f>List1!A60</f>
         <v>217.79999999999998</v>
       </c>
       <c r="E27" s="15">
-        <f>Лист1!A84</f>
+        <f>List1!A84</f>
         <v>205.20000000000002</v>
       </c>
       <c r="F27" s="15">
-        <f>Лист1!A108</f>
+        <f>List1!A108</f>
         <v>384.30000000000007</v>
       </c>
       <c r="G27" s="15">
-        <f>Лист1!A132</f>
+        <f>List1!A132</f>
         <v>363.6</v>
       </c>
       <c r="H27" s="15">
-        <f>Лист1!A156</f>
+        <f>List1!A156</f>
         <v>387.00000000000006</v>
       </c>
       <c r="I27" s="15">
-        <f>Лист1!A180</f>
+        <f>List1!A180</f>
         <v>369.90000000000003</v>
       </c>
       <c r="J27" s="15">
-        <f>Лист1!A204</f>
+        <f>List1!A204</f>
         <v>379.8</v>
       </c>
       <c r="K27" s="15">
-        <f>Лист1!A228</f>
+        <f>List1!A228</f>
         <v>218.7</v>
       </c>
       <c r="L27" s="15">
-        <f>Лист1!A252</f>
+        <f>List1!A252</f>
         <v>194.40000000000003</v>
       </c>
       <c r="M27" s="15">
-        <f>Лист1!A276</f>
+        <f>List1!A276</f>
         <v>376.20000000000005</v>
       </c>
       <c r="N27" s="15">
-        <f>Лист1!A300</f>
+        <f>List1!A300</f>
         <v>374.40000000000003</v>
       </c>
       <c r="O27" s="15">
-        <f>Лист1!A324</f>
+        <f>List1!A324</f>
         <v>380.70000000000005</v>
       </c>
       <c r="P27" s="15">
-        <f>Лист1!A348</f>
+        <f>List1!A348</f>
         <v>373.50000000000006</v>
       </c>
       <c r="Q27" s="7"/>
@@ -1635,63 +1648,63 @@
         <v>14</v>
       </c>
       <c r="B28" s="15">
-        <f>Лист1!A13</f>
+        <f>List1!A13</f>
         <v>383.40000000000003</v>
       </c>
       <c r="C28" s="15">
-        <f>Лист1!A37</f>
+        <f>List1!A37</f>
         <v>375.3</v>
       </c>
       <c r="D28" s="15">
-        <f>Лист1!A61</f>
+        <f>List1!A61</f>
         <v>221.40000000000003</v>
       </c>
       <c r="E28" s="15">
-        <f>Лист1!A85</f>
+        <f>List1!A85</f>
         <v>223.2</v>
       </c>
       <c r="F28" s="15">
-        <f>Лист1!A109</f>
+        <f>List1!A109</f>
         <v>387.00000000000006</v>
       </c>
       <c r="G28" s="15">
-        <f>Лист1!A133</f>
+        <f>List1!A133</f>
         <v>371.70000000000005</v>
       </c>
       <c r="H28" s="15">
-        <f>Лист1!A157</f>
+        <f>List1!A157</f>
         <v>381.6</v>
       </c>
       <c r="I28" s="15">
-        <f>Лист1!A181</f>
+        <f>List1!A181</f>
         <v>379.8</v>
       </c>
       <c r="J28" s="15">
-        <f>Лист1!A205</f>
+        <f>List1!A205</f>
         <v>380.70000000000005</v>
       </c>
       <c r="K28" s="15">
-        <f>Лист1!A229</f>
+        <f>List1!A229</f>
         <v>250.20000000000002</v>
       </c>
       <c r="L28" s="15">
-        <f>Лист1!A253</f>
+        <f>List1!A253</f>
         <v>207</v>
       </c>
       <c r="M28" s="15">
-        <f>Лист1!A277</f>
+        <f>List1!A277</f>
         <v>382.50000000000006</v>
       </c>
       <c r="N28" s="15">
-        <f>Лист1!A301</f>
+        <f>List1!A301</f>
         <v>381.6</v>
       </c>
       <c r="O28" s="15">
-        <f>Лист1!A325</f>
+        <f>List1!A325</f>
         <v>379.8</v>
       </c>
       <c r="P28" s="15">
-        <f>Лист1!A349</f>
+        <f>List1!A349</f>
         <v>377.1</v>
       </c>
       <c r="Q28" s="20"/>
@@ -1701,63 +1714,63 @@
         <v>15</v>
       </c>
       <c r="B29" s="15">
-        <f>Лист1!A14</f>
+        <f>List1!A14</f>
         <v>380.70000000000005</v>
       </c>
       <c r="C29" s="15">
-        <f>Лист1!A38</f>
+        <f>List1!A38</f>
         <v>369.90000000000003</v>
       </c>
       <c r="D29" s="15">
-        <f>Лист1!A62</f>
+        <f>List1!A62</f>
         <v>233.1</v>
       </c>
       <c r="E29" s="15">
-        <f>Лист1!A86</f>
+        <f>List1!A86</f>
         <v>224.1</v>
       </c>
       <c r="F29" s="15">
-        <f>Лист1!A110</f>
+        <f>List1!A110</f>
         <v>382.50000000000006</v>
       </c>
       <c r="G29" s="15">
-        <f>Лист1!A134</f>
+        <f>List1!A134</f>
         <v>386.1</v>
       </c>
       <c r="H29" s="15">
-        <f>Лист1!A158</f>
+        <f>List1!A158</f>
         <v>369</v>
       </c>
       <c r="I29" s="15">
-        <f>Лист1!A182</f>
+        <f>List1!A182</f>
         <v>391.50000000000006</v>
       </c>
       <c r="J29" s="15">
-        <f>Лист1!A206</f>
+        <f>List1!A206</f>
         <v>387.00000000000006</v>
       </c>
       <c r="K29" s="15">
-        <f>Лист1!A230</f>
+        <f>List1!A230</f>
         <v>252.90000000000003</v>
       </c>
       <c r="L29" s="15">
-        <f>Лист1!A254</f>
+        <f>List1!A254</f>
         <v>212.4</v>
       </c>
       <c r="M29" s="15">
-        <f>Лист1!A278</f>
+        <f>List1!A278</f>
         <v>376.20000000000005</v>
       </c>
       <c r="N29" s="15">
-        <f>Лист1!A302</f>
+        <f>List1!A302</f>
         <v>396.9</v>
       </c>
       <c r="O29" s="15">
-        <f>Лист1!A326</f>
+        <f>List1!A326</f>
         <v>382.50000000000006</v>
       </c>
       <c r="P29" s="15">
-        <f>Лист1!A350</f>
+        <f>List1!A350</f>
         <v>369.90000000000003</v>
       </c>
       <c r="Q29" s="7"/>
@@ -1767,63 +1780,63 @@
         <v>16</v>
       </c>
       <c r="B30" s="15">
-        <f>Лист1!A15</f>
+        <f>List1!A15</f>
         <v>388.8</v>
       </c>
       <c r="C30" s="15">
-        <f>Лист1!A39</f>
+        <f>List1!A39</f>
         <v>386.1</v>
       </c>
       <c r="D30" s="15">
-        <f>Лист1!A63</f>
+        <f>List1!A63</f>
         <v>237.60000000000002</v>
       </c>
       <c r="E30" s="15">
-        <f>Лист1!A87</f>
+        <f>List1!A87</f>
         <v>230.4</v>
       </c>
       <c r="F30" s="15">
-        <f>Лист1!A111</f>
+        <f>List1!A111</f>
         <v>387</v>
       </c>
       <c r="G30" s="15">
-        <f>Лист1!A135</f>
+        <f>List1!A135</f>
         <v>370.8</v>
       </c>
       <c r="H30" s="15">
-        <f>Лист1!A159</f>
+        <f>List1!A159</f>
         <v>375.3</v>
       </c>
       <c r="I30" s="15">
-        <f>Лист1!A183</f>
+        <f>List1!A183</f>
         <v>376.20000000000005</v>
       </c>
       <c r="J30" s="15">
-        <f>Лист1!A207</f>
+        <f>List1!A207</f>
         <v>382.50000000000006</v>
       </c>
       <c r="K30" s="15">
-        <f>Лист1!A231</f>
+        <f>List1!A231</f>
         <v>264.60000000000002</v>
       </c>
       <c r="L30" s="15">
-        <f>Лист1!A255</f>
+        <f>List1!A255</f>
         <v>218.7</v>
       </c>
       <c r="M30" s="15">
-        <f>Лист1!A279</f>
+        <f>List1!A279</f>
         <v>391.5</v>
       </c>
       <c r="N30" s="15">
-        <f>Лист1!A303</f>
+        <f>List1!A303</f>
         <v>381.6</v>
       </c>
       <c r="O30" s="15">
-        <f>Лист1!A327</f>
+        <f>List1!A327</f>
         <v>395.1</v>
       </c>
       <c r="P30" s="15">
-        <f>Лист1!A351</f>
+        <f>List1!A351</f>
         <v>375.3</v>
       </c>
       <c r="Q30" s="7"/>
@@ -1833,63 +1846,63 @@
         <v>17</v>
       </c>
       <c r="B31" s="15">
-        <f>Лист1!A16</f>
+        <f>List1!A16</f>
         <v>390.6</v>
       </c>
       <c r="C31" s="15">
-        <f>Лист1!A40</f>
+        <f>List1!A40</f>
         <v>402.3</v>
       </c>
       <c r="D31" s="15">
-        <f>Лист1!A64</f>
+        <f>List1!A64</f>
         <v>236.70000000000002</v>
       </c>
       <c r="E31" s="15">
-        <f>Лист1!A88</f>
+        <f>List1!A88</f>
         <v>223.2</v>
       </c>
       <c r="F31" s="15">
-        <f>Лист1!A112</f>
+        <f>List1!A112</f>
         <v>381.6</v>
       </c>
       <c r="G31" s="15">
-        <f>Лист1!A136</f>
+        <f>List1!A136</f>
         <v>378.00000000000006</v>
       </c>
       <c r="H31" s="15">
-        <f>Лист1!A160</f>
+        <f>List1!A160</f>
         <v>382.50000000000006</v>
       </c>
       <c r="I31" s="15">
-        <f>Лист1!A184</f>
+        <f>List1!A184</f>
         <v>377.1</v>
       </c>
       <c r="J31" s="15">
-        <f>Лист1!A208</f>
+        <f>List1!A208</f>
         <v>381.6</v>
       </c>
       <c r="K31" s="15">
-        <f>Лист1!A232</f>
+        <f>List1!A232</f>
         <v>259.20000000000005</v>
       </c>
       <c r="L31" s="15">
-        <f>Лист1!A256</f>
+        <f>List1!A256</f>
         <v>219.60000000000002</v>
       </c>
       <c r="M31" s="15">
-        <f>Лист1!A280</f>
+        <f>List1!A280</f>
         <v>379.8</v>
       </c>
       <c r="N31" s="15">
-        <f>Лист1!A304</f>
+        <f>List1!A304</f>
         <v>372.6</v>
       </c>
       <c r="O31" s="15">
-        <f>Лист1!A328</f>
+        <f>List1!A328</f>
         <v>389.7</v>
       </c>
       <c r="P31" s="15">
-        <f>Лист1!A352</f>
+        <f>List1!A352</f>
         <v>373.50000000000006</v>
       </c>
       <c r="Q31" s="7"/>
@@ -1899,63 +1912,63 @@
         <v>18</v>
       </c>
       <c r="B32" s="15">
-        <f>Лист1!A17</f>
+        <f>List1!A17</f>
         <v>382.50000000000006</v>
       </c>
       <c r="C32" s="15">
-        <f>Лист1!A41</f>
+        <f>List1!A41</f>
         <v>378.00000000000006</v>
       </c>
       <c r="D32" s="15">
-        <f>Лист1!A65</f>
+        <f>List1!A65</f>
         <v>241.20000000000002</v>
       </c>
       <c r="E32" s="15">
-        <f>Лист1!A89</f>
+        <f>List1!A89</f>
         <v>226.8</v>
       </c>
       <c r="F32" s="15">
-        <f>Лист1!A113</f>
+        <f>List1!A113</f>
         <v>381.6</v>
       </c>
       <c r="G32" s="15">
-        <f>Лист1!A137</f>
+        <f>List1!A137</f>
         <v>377.1</v>
       </c>
       <c r="H32" s="15">
-        <f>Лист1!A161</f>
+        <f>List1!A161</f>
         <v>372.6</v>
       </c>
       <c r="I32" s="15">
-        <f>Лист1!A185</f>
+        <f>List1!A185</f>
         <v>377.1</v>
       </c>
       <c r="J32" s="15">
-        <f>Лист1!A209</f>
+        <f>List1!A209</f>
         <v>387.90000000000003</v>
       </c>
       <c r="K32" s="15">
-        <f>Лист1!A233</f>
+        <f>List1!A233</f>
         <v>229.5</v>
       </c>
       <c r="L32" s="15">
-        <f>Лист1!A257</f>
+        <f>List1!A257</f>
         <v>224.1</v>
       </c>
       <c r="M32" s="15">
-        <f>Лист1!A281</f>
+        <f>List1!A281</f>
         <v>380.70000000000005</v>
       </c>
       <c r="N32" s="15">
-        <f>Лист1!A305</f>
+        <f>List1!A305</f>
         <v>387.00000000000006</v>
       </c>
       <c r="O32" s="15">
-        <f>Лист1!A329</f>
+        <f>List1!A329</f>
         <v>382.50000000000006</v>
       </c>
       <c r="P32" s="15">
-        <f>Лист1!A353</f>
+        <f>List1!A353</f>
         <v>378.90000000000003</v>
       </c>
       <c r="Q32" s="7"/>
@@ -1965,63 +1978,63 @@
         <v>19</v>
       </c>
       <c r="B33" s="15">
-        <f>Лист1!A18</f>
+        <f>List1!A18</f>
         <v>356.40000000000003</v>
       </c>
       <c r="C33" s="15">
-        <f>Лист1!A42</f>
+        <f>List1!A42</f>
         <v>359.1</v>
       </c>
       <c r="D33" s="15">
-        <f>Лист1!A66</f>
+        <f>List1!A66</f>
         <v>234</v>
       </c>
       <c r="E33" s="15">
-        <f>Лист1!A90</f>
+        <f>List1!A90</f>
         <v>217.79999999999998</v>
       </c>
       <c r="F33" s="15">
-        <f>Лист1!A114</f>
+        <f>List1!A114</f>
         <v>354.6</v>
       </c>
       <c r="G33" s="15">
-        <f>Лист1!A138</f>
+        <f>List1!A138</f>
         <v>353.7</v>
       </c>
       <c r="H33" s="15">
-        <f>Лист1!A162</f>
+        <f>List1!A162</f>
         <v>355.5</v>
       </c>
       <c r="I33" s="15">
-        <f>Лист1!A186</f>
+        <f>List1!A186</f>
         <v>363.6</v>
       </c>
       <c r="J33" s="15">
-        <f>Лист1!A210</f>
+        <f>List1!A210</f>
         <v>354.6</v>
       </c>
       <c r="K33" s="15">
-        <f>Лист1!A234</f>
+        <f>List1!A234</f>
         <v>216.00000000000003</v>
       </c>
       <c r="L33" s="15">
-        <f>Лист1!A258</f>
+        <f>List1!A258</f>
         <v>220.50000000000003</v>
       </c>
       <c r="M33" s="15">
-        <f>Лист1!A282</f>
+        <f>List1!A282</f>
         <v>363.6</v>
       </c>
       <c r="N33" s="15">
-        <f>Лист1!A306</f>
+        <f>List1!A306</f>
         <v>360</v>
       </c>
       <c r="O33" s="15">
-        <f>Лист1!A330</f>
+        <f>List1!A330</f>
         <v>364.5</v>
       </c>
       <c r="P33" s="15">
-        <f>Лист1!A354</f>
+        <f>List1!A354</f>
         <v>357.3</v>
       </c>
       <c r="Q33" s="7"/>
@@ -2031,63 +2044,63 @@
         <v>20</v>
       </c>
       <c r="B34" s="15">
-        <f>Лист1!A19</f>
+        <f>List1!A19</f>
         <v>303.3</v>
       </c>
       <c r="C34" s="15">
-        <f>Лист1!A43</f>
+        <f>List1!A43</f>
         <v>333.9</v>
       </c>
       <c r="D34" s="15">
-        <f>Лист1!A67</f>
+        <f>List1!A67</f>
         <v>234.9</v>
       </c>
       <c r="E34" s="15">
-        <f>Лист1!A91</f>
+        <f>List1!A91</f>
         <v>221.40000000000003</v>
       </c>
       <c r="F34" s="15">
-        <f>Лист1!A115</f>
+        <f>List1!A115</f>
         <v>291.60000000000002</v>
       </c>
       <c r="G34" s="15">
-        <f>Лист1!A139</f>
+        <f>List1!A139</f>
         <v>310.5</v>
       </c>
       <c r="H34" s="15">
-        <f>Лист1!A163</f>
+        <f>List1!A163</f>
         <v>291.60000000000002</v>
       </c>
       <c r="I34" s="15">
-        <f>Лист1!A187</f>
+        <f>List1!A187</f>
         <v>315</v>
       </c>
       <c r="J34" s="15">
-        <f>Лист1!A211</f>
+        <f>List1!A211</f>
         <v>308.70000000000005</v>
       </c>
       <c r="K34" s="15">
-        <f>Лист1!A235</f>
+        <f>List1!A235</f>
         <v>207</v>
       </c>
       <c r="L34" s="15">
-        <f>Лист1!A259</f>
+        <f>List1!A259</f>
         <v>222.3</v>
       </c>
       <c r="M34" s="15">
-        <f>Лист1!A283</f>
+        <f>List1!A283</f>
         <v>303.3</v>
       </c>
       <c r="N34" s="15">
-        <f>Лист1!A307</f>
+        <f>List1!A307</f>
         <v>314.10000000000002</v>
       </c>
       <c r="O34" s="15">
-        <f>Лист1!A331</f>
+        <f>List1!A331</f>
         <v>305.10000000000002</v>
       </c>
       <c r="P34" s="15">
-        <f>Лист1!A355</f>
+        <f>List1!A355</f>
         <v>299.7</v>
       </c>
       <c r="Q34" s="7"/>
@@ -2097,63 +2110,63 @@
         <v>21</v>
       </c>
       <c r="B35" s="15">
-        <f>Лист1!A20</f>
+        <f>List1!A20</f>
         <v>284.39999999999998</v>
       </c>
       <c r="C35" s="15">
-        <f>Лист1!A44</f>
+        <f>List1!A44</f>
         <v>295.2</v>
       </c>
       <c r="D35" s="15">
-        <f>Лист1!A68</f>
+        <f>List1!A68</f>
         <v>222.3</v>
       </c>
       <c r="E35" s="15">
-        <f>Лист1!A92</f>
+        <f>List1!A92</f>
         <v>214.2</v>
       </c>
       <c r="F35" s="15">
-        <f>Лист1!A116</f>
+        <f>List1!A116</f>
         <v>261.00000000000006</v>
       </c>
       <c r="G35" s="15">
-        <f>Лист1!A140</f>
+        <f>List1!A140</f>
         <v>277.2</v>
       </c>
       <c r="H35" s="15">
-        <f>Лист1!A164</f>
+        <f>List1!A164</f>
         <v>279</v>
       </c>
       <c r="I35" s="15">
-        <f>Лист1!A188</f>
+        <f>List1!A188</f>
         <v>272.70000000000005</v>
       </c>
       <c r="J35" s="15">
-        <f>Лист1!A212</f>
+        <f>List1!A212</f>
         <v>279.89999999999998</v>
       </c>
       <c r="K35" s="15">
-        <f>Лист1!A236</f>
+        <f>List1!A236</f>
         <v>187.20000000000002</v>
       </c>
       <c r="L35" s="15">
-        <f>Лист1!A260</f>
+        <f>List1!A260</f>
         <v>208.8</v>
       </c>
       <c r="M35" s="15">
-        <f>Лист1!A284</f>
+        <f>List1!A284</f>
         <v>262.8</v>
       </c>
       <c r="N35" s="15">
-        <f>Лист1!A308</f>
+        <f>List1!A308</f>
         <v>297</v>
       </c>
       <c r="O35" s="15">
-        <f>Лист1!A332</f>
+        <f>List1!A332</f>
         <v>280.8</v>
       </c>
       <c r="P35" s="15">
-        <f>Лист1!A356</f>
+        <f>List1!A356</f>
         <v>263.70000000000005</v>
       </c>
       <c r="Q35" s="7"/>
@@ -2163,63 +2176,63 @@
         <v>22</v>
       </c>
       <c r="B36" s="15">
-        <f>Лист1!A21</f>
+        <f>List1!A21</f>
         <v>255.60000000000002</v>
       </c>
       <c r="C36" s="15">
-        <f>Лист1!A45</f>
+        <f>List1!A45</f>
         <v>255.60000000000002</v>
       </c>
       <c r="D36" s="15">
-        <f>Лист1!A69</f>
+        <f>List1!A69</f>
         <v>210.60000000000002</v>
       </c>
       <c r="E36" s="15">
-        <f>Лист1!A93</f>
+        <f>List1!A93</f>
         <v>202.5</v>
       </c>
       <c r="F36" s="15">
-        <f>Лист1!A117</f>
+        <f>List1!A117</f>
         <v>239.4</v>
       </c>
       <c r="G36" s="15">
-        <f>Лист1!A141</f>
+        <f>List1!A141</f>
         <v>243.9</v>
       </c>
       <c r="H36" s="15">
-        <f>Лист1!A165</f>
+        <f>List1!A165</f>
         <v>246.60000000000002</v>
       </c>
       <c r="I36" s="15">
-        <f>Лист1!A189</f>
+        <f>List1!A189</f>
         <v>244.8</v>
       </c>
       <c r="J36" s="15">
-        <f>Лист1!A213</f>
+        <f>List1!A213</f>
         <v>241.20000000000002</v>
       </c>
       <c r="K36" s="15">
-        <f>Лист1!A237</f>
+        <f>List1!A237</f>
         <v>180.9</v>
       </c>
       <c r="L36" s="15">
-        <f>Лист1!A261</f>
+        <f>List1!A261</f>
         <v>197.10000000000002</v>
       </c>
       <c r="M36" s="15">
-        <f>Лист1!A285</f>
+        <f>List1!A285</f>
         <v>241.20000000000002</v>
       </c>
       <c r="N36" s="15">
-        <f>Лист1!A309</f>
+        <f>List1!A309</f>
         <v>252.90000000000003</v>
       </c>
       <c r="O36" s="15">
-        <f>Лист1!A333</f>
+        <f>List1!A333</f>
         <v>249.3</v>
       </c>
       <c r="P36" s="15">
-        <f>Лист1!A357</f>
+        <f>List1!A357</f>
         <v>237.60000000000002</v>
       </c>
       <c r="Q36" s="7"/>
@@ -2229,63 +2242,63 @@
         <v>23</v>
       </c>
       <c r="B37" s="15">
-        <f>Лист1!A22</f>
+        <f>List1!A22</f>
         <v>205.2</v>
       </c>
       <c r="C37" s="15">
-        <f>Лист1!A46</f>
+        <f>List1!A46</f>
         <v>220.50000000000003</v>
       </c>
       <c r="D37" s="15">
-        <f>Лист1!A70</f>
+        <f>List1!A70</f>
         <v>195.3</v>
       </c>
       <c r="E37" s="15">
-        <f>Лист1!A94</f>
+        <f>List1!A94</f>
         <v>173.70000000000002</v>
       </c>
       <c r="F37" s="15">
-        <f>Лист1!A118</f>
+        <f>List1!A118</f>
         <v>208.8</v>
       </c>
       <c r="G37" s="15">
-        <f>Лист1!A142</f>
+        <f>List1!A142</f>
         <v>221.4</v>
       </c>
       <c r="H37" s="15">
-        <f>Лист1!A166</f>
+        <f>List1!A166</f>
         <v>216.9</v>
       </c>
       <c r="I37" s="15">
-        <f>Лист1!A190</f>
+        <f>List1!A190</f>
         <v>216.00000000000003</v>
       </c>
       <c r="J37" s="15">
-        <f>Лист1!A214</f>
+        <f>List1!A214</f>
         <v>219.6</v>
       </c>
       <c r="K37" s="15">
-        <f>Лист1!A238</f>
+        <f>List1!A238</f>
         <v>180.9</v>
       </c>
       <c r="L37" s="15">
-        <f>Лист1!A262</f>
+        <f>List1!A262</f>
         <v>181.8</v>
       </c>
       <c r="M37" s="15">
-        <f>Лист1!A286</f>
+        <f>List1!A286</f>
         <v>225.9</v>
       </c>
       <c r="N37" s="15">
-        <f>Лист1!A310</f>
+        <f>List1!A310</f>
         <v>223.2</v>
       </c>
       <c r="O37" s="15">
-        <f>Лист1!A334</f>
+        <f>List1!A334</f>
         <v>224.1</v>
       </c>
       <c r="P37" s="15">
-        <f>Лист1!A358</f>
+        <f>List1!A358</f>
         <v>217.79999999999998</v>
       </c>
       <c r="Q37" s="7"/>
@@ -2295,63 +2308,63 @@
         <v>24</v>
       </c>
       <c r="B38" s="15">
-        <f>Лист1!A23</f>
+        <f>List1!A23</f>
         <v>182.70000000000002</v>
       </c>
       <c r="C38" s="15">
-        <f>Лист1!A47</f>
+        <f>List1!A47</f>
         <v>205.20000000000002</v>
       </c>
       <c r="D38" s="15">
-        <f>Лист1!A71</f>
+        <f>List1!A71</f>
         <v>179.10000000000002</v>
       </c>
       <c r="E38" s="15">
-        <f>Лист1!A95</f>
+        <f>List1!A95</f>
         <v>163.79999999999998</v>
       </c>
       <c r="F38" s="15">
-        <f>Лист1!A119</f>
+        <f>List1!A119</f>
         <v>201.6</v>
       </c>
       <c r="G38" s="15">
-        <f>Лист1!A143</f>
+        <f>List1!A143</f>
         <v>197.10000000000002</v>
       </c>
       <c r="H38" s="15">
-        <f>Лист1!A167</f>
+        <f>List1!A167</f>
         <v>204.3</v>
       </c>
       <c r="I38" s="15">
-        <f>Лист1!A191</f>
+        <f>List1!A191</f>
         <v>177.3</v>
       </c>
       <c r="J38" s="15">
-        <f>Лист1!A215</f>
+        <f>List1!A215</f>
         <v>200.70000000000002</v>
       </c>
       <c r="K38" s="15">
-        <f>Лист1!A239</f>
+        <f>List1!A239</f>
         <v>171.9</v>
       </c>
       <c r="L38" s="15">
-        <f>Лист1!A263</f>
+        <f>List1!A263</f>
         <v>169.2</v>
       </c>
       <c r="M38" s="15">
-        <f>Лист1!A287</f>
+        <f>List1!A287</f>
         <v>197.1</v>
       </c>
       <c r="N38" s="15">
-        <f>Лист1!A311</f>
+        <f>List1!A311</f>
         <v>207.9</v>
       </c>
       <c r="O38" s="15">
-        <f>Лист1!A335</f>
+        <f>List1!A335</f>
         <v>206.1</v>
       </c>
       <c r="P38" s="15">
-        <f>Лист1!A359</f>
+        <f>List1!A359</f>
         <v>205.20000000000002</v>
       </c>
       <c r="Q38" s="7"/>
@@ -2361,63 +2374,63 @@
         <v>25</v>
       </c>
       <c r="B39" s="15">
-        <f>Лист1!A24</f>
+        <f>List1!A24</f>
         <v>168.3</v>
       </c>
       <c r="C39" s="15">
-        <f>Лист1!A48</f>
+        <f>List1!A48</f>
         <v>187.20000000000002</v>
       </c>
       <c r="D39" s="15">
-        <f>Лист1!A72</f>
+        <f>List1!A72</f>
         <v>161.10000000000002</v>
       </c>
       <c r="E39" s="15">
-        <f>Лист1!A96</f>
+        <f>List1!A96</f>
         <v>155.70000000000002</v>
       </c>
       <c r="F39" s="15">
-        <f>Лист1!A120</f>
+        <f>List1!A120</f>
         <v>186.3</v>
       </c>
       <c r="G39" s="15">
-        <f>Лист1!A144</f>
+        <f>List1!A144</f>
         <v>185.4</v>
       </c>
       <c r="H39" s="15">
-        <f>Лист1!A168</f>
+        <f>List1!A168</f>
         <v>186.3</v>
       </c>
       <c r="I39" s="15">
-        <f>Лист1!A192</f>
+        <f>List1!A192</f>
         <v>171</v>
       </c>
       <c r="J39" s="15">
-        <f>Лист1!A216</f>
+        <f>List1!A216</f>
         <v>186.3</v>
       </c>
       <c r="K39" s="15">
-        <f>Лист1!A240</f>
+        <f>List1!A240</f>
         <v>162</v>
       </c>
       <c r="L39" s="15">
-        <f>Лист1!A264</f>
+        <f>List1!A264</f>
         <v>161.10000000000002</v>
       </c>
       <c r="M39" s="15">
-        <f>Лист1!A288</f>
+        <f>List1!A288</f>
         <v>182.70000000000002</v>
       </c>
       <c r="N39" s="15">
-        <f>Лист1!A312</f>
+        <f>List1!A312</f>
         <v>196.2</v>
       </c>
       <c r="O39" s="15">
-        <f>Лист1!A336</f>
+        <f>List1!A336</f>
         <v>198</v>
       </c>
       <c r="P39" s="15">
-        <f>Лист1!A360</f>
+        <f>List1!A360</f>
         <v>192.60000000000002</v>
       </c>
       <c r="Q39" s="7"/>
@@ -2428,62 +2441,62 @@
       </c>
       <c r="B40" s="15">
         <f>SUM(B16:B39)</f>
-        <v>6432.3</v>
+        <v>6504.3</v>
       </c>
       <c r="C40" s="15">
-        <f t="shared" ref="C40:P40" si="0">SUM(C16:C39)</f>
+        <f t="shared" ref="C40:P40" si="1">SUM(C16:C39)</f>
         <v>6403.5</v>
       </c>
       <c r="D40" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4729.5000000000009</v>
       </c>
       <c r="E40" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4508.1000000000004</v>
       </c>
       <c r="F40" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6180.300000000002</v>
       </c>
       <c r="G40" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6452.0999999999995</v>
       </c>
       <c r="H40" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6417.9000000000015</v>
       </c>
       <c r="I40" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6416.1000000000022</v>
       </c>
       <c r="J40" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6331.5</v>
       </c>
       <c r="K40" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4799.6999999999989</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4414.5000000000009</v>
       </c>
       <c r="M40" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6308.1</v>
       </c>
       <c r="N40" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6555.5999999999995</v>
       </c>
       <c r="O40" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6559.2000000000025</v>
       </c>
       <c r="P40" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6556.5000000000009</v>
       </c>
       <c r="Q40" s="7"/>
@@ -2546,77 +2559,93 @@
       <c r="Q43" s="7"/>
     </row>
     <row r="44" spans="1:17" s="8" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="28"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
     </row>
     <row r="45" spans="1:17" s="6" customFormat="1" ht="26.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="27"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="13">
-        <v>42720</v>
+        <f>P15+1</f>
+        <v>42690</v>
       </c>
       <c r="C45" s="13">
-        <v>42721</v>
+        <f>B45+1</f>
+        <v>42691</v>
       </c>
       <c r="D45" s="13">
-        <v>42722</v>
+        <f t="shared" ref="D45:Q45" si="2">C45+1</f>
+        <v>42692</v>
       </c>
       <c r="E45" s="13">
-        <v>42723</v>
+        <f t="shared" si="2"/>
+        <v>42693</v>
       </c>
       <c r="F45" s="13">
-        <v>42724</v>
+        <f t="shared" si="2"/>
+        <v>42694</v>
       </c>
       <c r="G45" s="13">
-        <v>42725</v>
+        <f t="shared" si="2"/>
+        <v>42695</v>
       </c>
       <c r="H45" s="13">
-        <v>42726</v>
+        <f t="shared" si="2"/>
+        <v>42696</v>
       </c>
       <c r="I45" s="13">
-        <v>42727</v>
+        <f t="shared" si="2"/>
+        <v>42697</v>
       </c>
       <c r="J45" s="13">
-        <v>42728</v>
+        <f t="shared" si="2"/>
+        <v>42698</v>
       </c>
       <c r="K45" s="13">
-        <v>42729</v>
+        <f t="shared" si="2"/>
+        <v>42699</v>
       </c>
       <c r="L45" s="13">
-        <v>42730</v>
+        <f t="shared" si="2"/>
+        <v>42700</v>
       </c>
       <c r="M45" s="13">
-        <v>42731</v>
+        <f t="shared" si="2"/>
+        <v>42701</v>
       </c>
       <c r="N45" s="13">
-        <v>42732</v>
+        <f t="shared" si="2"/>
+        <v>42702</v>
       </c>
       <c r="O45" s="13">
-        <v>42733</v>
+        <f t="shared" si="2"/>
+        <v>42703</v>
       </c>
       <c r="P45" s="13">
-        <v>42734</v>
+        <f t="shared" si="2"/>
+        <v>42704</v>
       </c>
       <c r="Q45" s="13">
-        <v>42735</v>
+        <f t="shared" si="2"/>
+        <v>42705</v>
       </c>
     </row>
     <row r="46" spans="1:17" s="8" customFormat="1" ht="11.55" x14ac:dyDescent="0.2">
@@ -2624,67 +2653,67 @@
         <v>2</v>
       </c>
       <c r="B46" s="15">
-        <f>Лист1!A361</f>
+        <f>List1!A361</f>
         <v>185.4</v>
       </c>
       <c r="C46" s="15">
-        <f>Лист1!A385</f>
+        <f>List1!A385</f>
         <v>183.60000000000002</v>
       </c>
       <c r="D46" s="15">
-        <f>Лист1!A409</f>
+        <f>List1!A409</f>
         <v>162.9</v>
       </c>
       <c r="E46" s="15">
-        <f>Лист1!A433</f>
+        <f>List1!A433</f>
         <v>135</v>
       </c>
       <c r="F46" s="15">
-        <f>Лист1!A457</f>
+        <f>List1!A457</f>
         <v>171</v>
       </c>
       <c r="G46" s="15">
-        <f>Лист1!A481</f>
+        <f>List1!A481</f>
         <v>175.5</v>
       </c>
       <c r="H46" s="15">
-        <f>Лист1!A505</f>
+        <f>List1!A505</f>
         <v>182.70000000000002</v>
       </c>
       <c r="I46" s="15">
-        <f>Лист1!A529</f>
+        <f>List1!A529</f>
         <v>187.20000000000002</v>
       </c>
       <c r="J46" s="15">
-        <f>Лист1!A553</f>
+        <f>List1!A553</f>
         <v>190.8</v>
       </c>
       <c r="K46" s="15">
-        <f>Лист1!A577</f>
+        <f>List1!A577</f>
         <v>166.5</v>
       </c>
       <c r="L46" s="15">
-        <f>Лист1!A601</f>
+        <f>List1!A601</f>
         <v>156.60000000000002</v>
       </c>
       <c r="M46" s="15">
-        <f>Лист1!A625</f>
+        <f>List1!A625</f>
         <v>186.3</v>
       </c>
       <c r="N46" s="15">
-        <f>Лист1!A649</f>
+        <f>List1!A649</f>
         <v>174.6</v>
       </c>
       <c r="O46" s="15">
-        <f>Лист1!A673</f>
+        <f>List1!A673</f>
         <v>189.00000000000003</v>
       </c>
       <c r="P46" s="15">
-        <f>Лист1!A697</f>
+        <f>List1!A697</f>
         <v>176.4</v>
       </c>
       <c r="Q46" s="15">
-        <f>Лист1!A721</f>
+        <f>List1!A721</f>
         <v>0</v>
       </c>
     </row>
@@ -2693,67 +2722,67 @@
         <v>3</v>
       </c>
       <c r="B47" s="15">
-        <f>Лист1!A362</f>
+        <f>List1!A362</f>
         <v>176.4</v>
       </c>
       <c r="C47" s="15">
-        <f>Лист1!A386</f>
+        <f>List1!A386</f>
         <v>176.4</v>
       </c>
       <c r="D47" s="15">
-        <f>Лист1!A410</f>
+        <f>List1!A410</f>
         <v>160.20000000000002</v>
       </c>
       <c r="E47" s="15">
-        <f>Лист1!A434</f>
+        <f>List1!A434</f>
         <v>133.20000000000002</v>
       </c>
       <c r="F47" s="15">
-        <f>Лист1!A458</f>
+        <f>List1!A458</f>
         <v>171</v>
       </c>
       <c r="G47" s="15">
-        <f>Лист1!A482</f>
+        <f>List1!A482</f>
         <v>172.8</v>
       </c>
       <c r="H47" s="15">
-        <f>Лист1!A506</f>
+        <f>List1!A506</f>
         <v>183.60000000000002</v>
       </c>
       <c r="I47" s="15">
-        <f>Лист1!A530</f>
+        <f>List1!A530</f>
         <v>183.60000000000002</v>
       </c>
       <c r="J47" s="15">
-        <f>Лист1!A554</f>
+        <f>List1!A554</f>
         <v>191.70000000000002</v>
       </c>
       <c r="K47" s="15">
-        <f>Лист1!A578</f>
+        <f>List1!A578</f>
         <v>170.1</v>
       </c>
       <c r="L47" s="15">
-        <f>Лист1!A602</f>
+        <f>List1!A602</f>
         <v>153.9</v>
       </c>
       <c r="M47" s="15">
-        <f>Лист1!A626</f>
+        <f>List1!A626</f>
         <v>189.00000000000003</v>
       </c>
       <c r="N47" s="15">
-        <f>Лист1!A650</f>
+        <f>List1!A650</f>
         <v>171</v>
       </c>
       <c r="O47" s="15">
-        <f>Лист1!A674</f>
+        <f>List1!A674</f>
         <v>181.8</v>
       </c>
       <c r="P47" s="15">
-        <f>Лист1!A698</f>
+        <f>List1!A698</f>
         <v>172.8</v>
       </c>
       <c r="Q47" s="15">
-        <f>Лист1!A722</f>
+        <f>List1!A722</f>
         <v>0</v>
       </c>
     </row>
@@ -2762,67 +2791,67 @@
         <v>4</v>
       </c>
       <c r="B48" s="15">
-        <f>Лист1!A363</f>
+        <f>List1!A363</f>
         <v>175.5</v>
       </c>
       <c r="C48" s="15">
-        <f>Лист1!A387</f>
+        <f>List1!A387</f>
         <v>172.8</v>
       </c>
       <c r="D48" s="15">
-        <f>Лист1!A411</f>
+        <f>List1!A411</f>
         <v>156.60000000000002</v>
       </c>
       <c r="E48" s="15">
-        <f>Лист1!A435</f>
+        <f>List1!A435</f>
         <v>135.9</v>
       </c>
       <c r="F48" s="15">
-        <f>Лист1!A459</f>
+        <f>List1!A459</f>
         <v>170.1</v>
       </c>
       <c r="G48" s="15">
-        <f>Лист1!A483</f>
+        <f>List1!A483</f>
         <v>173.70000000000002</v>
       </c>
       <c r="H48" s="15">
-        <f>Лист1!A507</f>
+        <f>List1!A507</f>
         <v>191.70000000000002</v>
       </c>
       <c r="I48" s="15">
-        <f>Лист1!A531</f>
+        <f>List1!A531</f>
         <v>180.9</v>
       </c>
       <c r="J48" s="15">
-        <f>Лист1!A555</f>
+        <f>List1!A555</f>
         <v>189.9</v>
       </c>
       <c r="K48" s="15">
-        <f>Лист1!A579</f>
+        <f>List1!A579</f>
         <v>165.6</v>
       </c>
       <c r="L48" s="15">
-        <f>Лист1!A603</f>
+        <f>List1!A603</f>
         <v>152.10000000000002</v>
       </c>
       <c r="M48" s="15">
-        <f>Лист1!A627</f>
+        <f>List1!A627</f>
         <v>184.5</v>
       </c>
       <c r="N48" s="15">
-        <f>Лист1!A651</f>
+        <f>List1!A651</f>
         <v>171.9</v>
       </c>
       <c r="O48" s="15">
-        <f>Лист1!A675</f>
+        <f>List1!A675</f>
         <v>189.9</v>
       </c>
       <c r="P48" s="15">
-        <f>Лист1!A699</f>
+        <f>List1!A699</f>
         <v>174.6</v>
       </c>
       <c r="Q48" s="15">
-        <f>Лист1!A723</f>
+        <f>List1!A723</f>
         <v>0</v>
       </c>
     </row>
@@ -2831,67 +2860,67 @@
         <v>5</v>
       </c>
       <c r="B49" s="15">
-        <f>Лист1!A364</f>
+        <f>List1!A364</f>
         <v>171.9</v>
       </c>
       <c r="C49" s="15">
-        <f>Лист1!A388</f>
+        <f>List1!A388</f>
         <v>169.2</v>
       </c>
       <c r="D49" s="15">
-        <f>Лист1!A412</f>
+        <f>List1!A412</f>
         <v>155.70000000000002</v>
       </c>
       <c r="E49" s="15">
-        <f>Лист1!A436</f>
+        <f>List1!A436</f>
         <v>135</v>
       </c>
       <c r="F49" s="15">
-        <f>Лист1!A460</f>
+        <f>List1!A460</f>
         <v>164.7</v>
       </c>
       <c r="G49" s="15">
-        <f>Лист1!A484</f>
+        <f>List1!A484</f>
         <v>173.70000000000002</v>
       </c>
       <c r="H49" s="15">
-        <f>Лист1!A508</f>
+        <f>List1!A508</f>
         <v>190.8</v>
       </c>
       <c r="I49" s="15">
-        <f>Лист1!A532</f>
+        <f>List1!A532</f>
         <v>180.9</v>
       </c>
       <c r="J49" s="15">
-        <f>Лист1!A556</f>
+        <f>List1!A556</f>
         <v>185.4</v>
       </c>
       <c r="K49" s="15">
-        <f>Лист1!A580</f>
+        <f>List1!A580</f>
         <v>163.79999999999998</v>
       </c>
       <c r="L49" s="15">
-        <f>Лист1!A604</f>
+        <f>List1!A604</f>
         <v>149.4</v>
       </c>
       <c r="M49" s="15">
-        <f>Лист1!A628</f>
+        <f>List1!A628</f>
         <v>183.60000000000002</v>
       </c>
       <c r="N49" s="15">
-        <f>Лист1!A652</f>
+        <f>List1!A652</f>
         <v>174.6</v>
       </c>
       <c r="O49" s="15">
-        <f>Лист1!A676</f>
+        <f>List1!A676</f>
         <v>187.20000000000002</v>
       </c>
       <c r="P49" s="15">
-        <f>Лист1!A700</f>
+        <f>List1!A700</f>
         <v>173.70000000000002</v>
       </c>
       <c r="Q49" s="15">
-        <f>Лист1!A724</f>
+        <f>List1!A724</f>
         <v>0</v>
       </c>
     </row>
@@ -2900,67 +2929,67 @@
         <v>6</v>
       </c>
       <c r="B50" s="15">
-        <f>Лист1!A365</f>
+        <f>List1!A365</f>
         <v>171</v>
       </c>
       <c r="C50" s="15">
-        <f>Лист1!A389</f>
+        <f>List1!A389</f>
         <v>167.4</v>
       </c>
       <c r="D50" s="15">
-        <f>Лист1!A413</f>
+        <f>List1!A413</f>
         <v>155.70000000000002</v>
       </c>
       <c r="E50" s="15">
-        <f>Лист1!A437</f>
+        <f>List1!A437</f>
         <v>134.10000000000002</v>
       </c>
       <c r="F50" s="15">
-        <f>Лист1!A461</f>
+        <f>List1!A461</f>
         <v>161.10000000000002</v>
       </c>
       <c r="G50" s="15">
-        <f>Лист1!A485</f>
+        <f>List1!A485</f>
         <v>172.8</v>
       </c>
       <c r="H50" s="15">
-        <f>Лист1!A509</f>
+        <f>List1!A509</f>
         <v>189.9</v>
       </c>
       <c r="I50" s="15">
-        <f>Лист1!A533</f>
+        <f>List1!A533</f>
         <v>182.70000000000002</v>
       </c>
       <c r="J50" s="15">
-        <f>Лист1!A557</f>
+        <f>List1!A557</f>
         <v>180</v>
       </c>
       <c r="K50" s="15">
-        <f>Лист1!A581</f>
+        <f>List1!A581</f>
         <v>162.00000000000003</v>
       </c>
       <c r="L50" s="15">
-        <f>Лист1!A605</f>
+        <f>List1!A605</f>
         <v>152.10000000000002</v>
       </c>
       <c r="M50" s="15">
-        <f>Лист1!A629</f>
+        <f>List1!A629</f>
         <v>183.60000000000002</v>
       </c>
       <c r="N50" s="15">
-        <f>Лист1!A653</f>
+        <f>List1!A653</f>
         <v>174.6</v>
       </c>
       <c r="O50" s="15">
-        <f>Лист1!A677</f>
+        <f>List1!A677</f>
         <v>176.4</v>
       </c>
       <c r="P50" s="15">
-        <f>Лист1!A701</f>
+        <f>List1!A701</f>
         <v>171</v>
       </c>
       <c r="Q50" s="15">
-        <f>Лист1!A725</f>
+        <f>List1!A725</f>
         <v>0</v>
       </c>
     </row>
@@ -2969,67 +2998,67 @@
         <v>7</v>
       </c>
       <c r="B51" s="15">
-        <f>Лист1!A366</f>
+        <f>List1!A366</f>
         <v>171</v>
       </c>
       <c r="C51" s="15">
-        <f>Лист1!A390</f>
+        <f>List1!A390</f>
         <v>165.6</v>
       </c>
       <c r="D51" s="15">
-        <f>Лист1!A414</f>
+        <f>List1!A414</f>
         <v>156.60000000000002</v>
       </c>
       <c r="E51" s="15">
-        <f>Лист1!A438</f>
+        <f>List1!A438</f>
         <v>134.10000000000002</v>
       </c>
       <c r="F51" s="15">
-        <f>Лист1!A462</f>
+        <f>List1!A462</f>
         <v>162.9</v>
       </c>
       <c r="G51" s="15">
-        <f>Лист1!A486</f>
+        <f>List1!A486</f>
         <v>172.8</v>
       </c>
       <c r="H51" s="15">
-        <f>Лист1!A510</f>
+        <f>List1!A510</f>
         <v>181.8</v>
       </c>
       <c r="I51" s="15">
-        <f>Лист1!A534</f>
+        <f>List1!A534</f>
         <v>181.8</v>
       </c>
       <c r="J51" s="15">
-        <f>Лист1!A558</f>
+        <f>List1!A558</f>
         <v>175.5</v>
       </c>
       <c r="K51" s="15">
-        <f>Лист1!A582</f>
+        <f>List1!A582</f>
         <v>160.20000000000002</v>
       </c>
       <c r="L51" s="15">
-        <f>Лист1!A606</f>
+        <f>List1!A606</f>
         <v>152.10000000000002</v>
       </c>
       <c r="M51" s="15">
-        <f>Лист1!A630</f>
+        <f>List1!A630</f>
         <v>180</v>
       </c>
       <c r="N51" s="15">
-        <f>Лист1!A654</f>
+        <f>List1!A654</f>
         <v>177.3</v>
       </c>
       <c r="O51" s="15">
-        <f>Лист1!A678</f>
+        <f>List1!A678</f>
         <v>178.20000000000002</v>
       </c>
       <c r="P51" s="15">
-        <f>Лист1!A702</f>
+        <f>List1!A702</f>
         <v>170.1</v>
       </c>
       <c r="Q51" s="15">
-        <f>Лист1!A726</f>
+        <f>List1!A726</f>
         <v>0</v>
       </c>
     </row>
@@ -3038,67 +3067,67 @@
         <v>8</v>
       </c>
       <c r="B52" s="15">
-        <f>Лист1!A367</f>
+        <f>List1!A367</f>
         <v>177.3</v>
       </c>
       <c r="C52" s="15">
-        <f>Лист1!A391</f>
+        <f>List1!A391</f>
         <v>170.1</v>
       </c>
       <c r="D52" s="15">
-        <f>Лист1!A415</f>
+        <f>List1!A415</f>
         <v>153.9</v>
       </c>
       <c r="E52" s="15">
-        <f>Лист1!A439</f>
+        <f>List1!A439</f>
         <v>133.20000000000002</v>
       </c>
       <c r="F52" s="15">
-        <f>Лист1!A463</f>
+        <f>List1!A463</f>
         <v>167.4</v>
       </c>
       <c r="G52" s="15">
-        <f>Лист1!A487</f>
+        <f>List1!A487</f>
         <v>175.5</v>
       </c>
       <c r="H52" s="15">
-        <f>Лист1!A511</f>
+        <f>List1!A511</f>
         <v>180.9</v>
       </c>
       <c r="I52" s="15">
-        <f>Лист1!A535</f>
+        <f>List1!A535</f>
         <v>178.20000000000002</v>
       </c>
       <c r="J52" s="15">
-        <f>Лист1!A559</f>
+        <f>List1!A559</f>
         <v>175.5</v>
       </c>
       <c r="K52" s="15">
-        <f>Лист1!A583</f>
+        <f>List1!A583</f>
         <v>160.20000000000002</v>
       </c>
       <c r="L52" s="15">
-        <f>Лист1!A607</f>
+        <f>List1!A607</f>
         <v>158.4</v>
       </c>
       <c r="M52" s="15">
-        <f>Лист1!A631</f>
+        <f>List1!A631</f>
         <v>183.60000000000002</v>
       </c>
       <c r="N52" s="15">
-        <f>Лист1!A655</f>
+        <f>List1!A655</f>
         <v>177.3</v>
       </c>
       <c r="O52" s="15">
-        <f>Лист1!A679</f>
+        <f>List1!A679</f>
         <v>183.60000000000002</v>
       </c>
       <c r="P52" s="15">
-        <f>Лист1!A703</f>
+        <f>List1!A703</f>
         <v>171.9</v>
       </c>
       <c r="Q52" s="15">
-        <f>Лист1!A727</f>
+        <f>List1!A727</f>
         <v>0</v>
       </c>
     </row>
@@ -3107,67 +3136,67 @@
         <v>9</v>
       </c>
       <c r="B53" s="15">
-        <f>Лист1!A368</f>
+        <f>List1!A368</f>
         <v>208.8</v>
       </c>
       <c r="C53" s="15">
-        <f>Лист1!A392</f>
+        <f>List1!A392</f>
         <v>189.00000000000003</v>
       </c>
       <c r="D53" s="15">
-        <f>Лист1!A416</f>
+        <f>List1!A416</f>
         <v>153.9</v>
       </c>
       <c r="E53" s="15">
-        <f>Лист1!A440</f>
+        <f>List1!A440</f>
         <v>148.5</v>
       </c>
       <c r="F53" s="15">
-        <f>Лист1!A464</f>
+        <f>List1!A464</f>
         <v>176.4</v>
       </c>
       <c r="G53" s="15">
-        <f>Лист1!A488</f>
+        <f>List1!A488</f>
         <v>198</v>
       </c>
       <c r="H53" s="15">
-        <f>Лист1!A512</f>
+        <f>List1!A512</f>
         <v>207</v>
       </c>
       <c r="I53" s="15">
-        <f>Лист1!A536</f>
+        <f>List1!A536</f>
         <v>190.8</v>
       </c>
       <c r="J53" s="15">
-        <f>Лист1!A560</f>
+        <f>List1!A560</f>
         <v>178.20000000000002</v>
       </c>
       <c r="K53" s="15">
-        <f>Лист1!A584</f>
+        <f>List1!A584</f>
         <v>171</v>
       </c>
       <c r="L53" s="15">
-        <f>Лист1!A608</f>
+        <f>List1!A608</f>
         <v>176.4</v>
       </c>
       <c r="M53" s="15">
-        <f>Лист1!A632</f>
+        <f>List1!A632</f>
         <v>216.9</v>
       </c>
       <c r="N53" s="15">
-        <f>Лист1!A656</f>
+        <f>List1!A656</f>
         <v>185.4</v>
       </c>
       <c r="O53" s="15">
-        <f>Лист1!A680</f>
+        <f>List1!A680</f>
         <v>203.40000000000003</v>
       </c>
       <c r="P53" s="15">
-        <f>Лист1!A704</f>
+        <f>List1!A704</f>
         <v>189.9</v>
       </c>
       <c r="Q53" s="15">
-        <f>Лист1!A728</f>
+        <f>List1!A728</f>
         <v>0</v>
       </c>
     </row>
@@ -3176,67 +3205,67 @@
         <v>10</v>
       </c>
       <c r="B54" s="15">
-        <f>Лист1!A369</f>
+        <f>List1!A369</f>
         <v>254.70000000000002</v>
       </c>
       <c r="C54" s="15">
-        <f>Лист1!A393</f>
+        <f>List1!A393</f>
         <v>210.6</v>
       </c>
       <c r="D54" s="15">
-        <f>Лист1!A417</f>
+        <f>List1!A417</f>
         <v>162</v>
       </c>
       <c r="E54" s="15">
-        <f>Лист1!A441</f>
+        <f>List1!A441</f>
         <v>216.9</v>
       </c>
       <c r="F54" s="15">
-        <f>Лист1!A465</f>
+        <f>List1!A465</f>
         <v>238.5</v>
       </c>
       <c r="G54" s="15">
-        <f>Лист1!A489</f>
+        <f>List1!A489</f>
         <v>257.40000000000003</v>
       </c>
       <c r="H54" s="15">
-        <f>Лист1!A513</f>
+        <f>List1!A513</f>
         <v>256.5</v>
       </c>
       <c r="I54" s="15">
-        <f>Лист1!A537</f>
+        <f>List1!A537</f>
         <v>261.00000000000006</v>
       </c>
       <c r="J54" s="15">
-        <f>Лист1!A561</f>
+        <f>List1!A561</f>
         <v>209.70000000000002</v>
       </c>
       <c r="K54" s="15">
-        <f>Лист1!A585</f>
+        <f>List1!A585</f>
         <v>176.4</v>
       </c>
       <c r="L54" s="15">
-        <f>Лист1!A609</f>
+        <f>List1!A609</f>
         <v>251.10000000000002</v>
       </c>
       <c r="M54" s="15">
-        <f>Лист1!A633</f>
+        <f>List1!A633</f>
         <v>279.00000000000006</v>
       </c>
       <c r="N54" s="15">
-        <f>Лист1!A657</f>
+        <f>List1!A657</f>
         <v>249.3</v>
       </c>
       <c r="O54" s="15">
-        <f>Лист1!A681</f>
+        <f>List1!A681</f>
         <v>259.20000000000005</v>
       </c>
       <c r="P54" s="15">
-        <f>Лист1!A705</f>
+        <f>List1!A705</f>
         <v>261.00000000000006</v>
       </c>
       <c r="Q54" s="15">
-        <f>Лист1!A729</f>
+        <f>List1!A729</f>
         <v>0</v>
       </c>
     </row>
@@ -3245,67 +3274,67 @@
         <v>11</v>
       </c>
       <c r="B55" s="15">
-        <f>Лист1!A370</f>
+        <f>List1!A370</f>
         <v>306.89999999999998</v>
       </c>
       <c r="C55" s="15">
-        <f>Лист1!A394</f>
+        <f>List1!A394</f>
         <v>228.6</v>
       </c>
       <c r="D55" s="15">
-        <f>Лист1!A418</f>
+        <f>List1!A418</f>
         <v>175.5</v>
       </c>
       <c r="E55" s="15">
-        <f>Лист1!A442</f>
+        <f>List1!A442</f>
         <v>280.80000000000007</v>
       </c>
       <c r="F55" s="15">
-        <f>Лист1!A466</f>
+        <f>List1!A466</f>
         <v>281.7</v>
       </c>
       <c r="G55" s="15">
-        <f>Лист1!A490</f>
+        <f>List1!A490</f>
         <v>309.60000000000002</v>
       </c>
       <c r="H55" s="15">
-        <f>Лист1!A514</f>
+        <f>List1!A514</f>
         <v>311.39999999999998</v>
       </c>
       <c r="I55" s="15">
-        <f>Лист1!A538</f>
+        <f>List1!A538</f>
         <v>307.8</v>
       </c>
       <c r="J55" s="15">
-        <f>Лист1!A562</f>
+        <f>List1!A562</f>
         <v>198</v>
       </c>
       <c r="K55" s="15">
-        <f>Лист1!A586</f>
+        <f>List1!A586</f>
         <v>190.8</v>
       </c>
       <c r="L55" s="15">
-        <f>Лист1!A610</f>
+        <f>List1!A610</f>
         <v>311.39999999999998</v>
       </c>
       <c r="M55" s="15">
-        <f>Лист1!A634</f>
+        <f>List1!A634</f>
         <v>326.7</v>
       </c>
       <c r="N55" s="15">
-        <f>Лист1!A658</f>
+        <f>List1!A658</f>
         <v>325.8</v>
       </c>
       <c r="O55" s="15">
-        <f>Лист1!A682</f>
+        <f>List1!A682</f>
         <v>315</v>
       </c>
       <c r="P55" s="15">
-        <f>Лист1!A706</f>
+        <f>List1!A706</f>
         <v>300.60000000000002</v>
       </c>
       <c r="Q55" s="15">
-        <f>Лист1!A730</f>
+        <f>List1!A730</f>
         <v>0</v>
       </c>
     </row>
@@ -3314,67 +3343,67 @@
         <v>12</v>
       </c>
       <c r="B56" s="15">
-        <f>Лист1!A371</f>
+        <f>List1!A371</f>
         <v>335.7</v>
       </c>
       <c r="C56" s="15">
-        <f>Лист1!A395</f>
+        <f>List1!A395</f>
         <v>266.40000000000003</v>
       </c>
       <c r="D56" s="15">
-        <f>Лист1!A419</f>
+        <f>List1!A419</f>
         <v>181.8</v>
       </c>
       <c r="E56" s="15">
-        <f>Лист1!A443</f>
+        <f>List1!A443</f>
         <v>331.2</v>
       </c>
       <c r="F56" s="15">
-        <f>Лист1!A467</f>
+        <f>List1!A467</f>
         <v>320.39999999999998</v>
       </c>
       <c r="G56" s="15">
-        <f>Лист1!A491</f>
+        <f>List1!A491</f>
         <v>359.1</v>
       </c>
       <c r="H56" s="15">
-        <f>Лист1!A515</f>
+        <f>List1!A515</f>
         <v>351.90000000000003</v>
       </c>
       <c r="I56" s="15">
-        <f>Лист1!A539</f>
+        <f>List1!A539</f>
         <v>360.90000000000003</v>
       </c>
       <c r="J56" s="15">
-        <f>Лист1!A563</f>
+        <f>List1!A563</f>
         <v>211.5</v>
       </c>
       <c r="K56" s="15">
-        <f>Лист1!A587</f>
+        <f>List1!A587</f>
         <v>190.8</v>
       </c>
       <c r="L56" s="15">
-        <f>Лист1!A611</f>
+        <f>List1!A611</f>
         <v>357.3</v>
       </c>
       <c r="M56" s="15">
-        <f>Лист1!A635</f>
+        <f>List1!A635</f>
         <v>346.5</v>
       </c>
       <c r="N56" s="15">
-        <f>Лист1!A659</f>
+        <f>List1!A659</f>
         <v>365.40000000000003</v>
       </c>
       <c r="O56" s="15">
-        <f>Лист1!A683</f>
+        <f>List1!A683</f>
         <v>352.8</v>
       </c>
       <c r="P56" s="15">
-        <f>Лист1!A707</f>
+        <f>List1!A707</f>
         <v>311.40000000000003</v>
       </c>
       <c r="Q56" s="15">
-        <f>Лист1!A731</f>
+        <f>List1!A731</f>
         <v>0</v>
       </c>
     </row>
@@ -3383,67 +3412,67 @@
         <v>13</v>
       </c>
       <c r="B57" s="15">
-        <f>Лист1!A372</f>
+        <f>List1!A372</f>
         <v>364.5</v>
       </c>
       <c r="C57" s="15">
-        <f>Лист1!A396</f>
+        <f>List1!A396</f>
         <v>278.10000000000002</v>
       </c>
       <c r="D57" s="15">
-        <f>Лист1!A420</f>
+        <f>List1!A420</f>
         <v>191.70000000000002</v>
       </c>
       <c r="E57" s="15">
-        <f>Лист1!A444</f>
+        <f>List1!A444</f>
         <v>355.5</v>
       </c>
       <c r="F57" s="15">
-        <f>Лист1!A468</f>
+        <f>List1!A468</f>
         <v>356.40000000000003</v>
       </c>
       <c r="G57" s="15">
-        <f>Лист1!A492</f>
+        <f>List1!A492</f>
         <v>385.20000000000005</v>
       </c>
       <c r="H57" s="15">
-        <f>Лист1!A516</f>
+        <f>List1!A516</f>
         <v>367.20000000000005</v>
       </c>
       <c r="I57" s="15">
-        <f>Лист1!A540</f>
+        <f>List1!A540</f>
         <v>396</v>
       </c>
       <c r="J57" s="15">
-        <f>Лист1!A564</f>
+        <f>List1!A564</f>
         <v>231.3</v>
       </c>
       <c r="K57" s="15">
-        <f>Лист1!A588</f>
+        <f>List1!A588</f>
         <v>207</v>
       </c>
       <c r="L57" s="15">
-        <f>Лист1!A612</f>
+        <f>List1!A612</f>
         <v>389.70000000000005</v>
       </c>
       <c r="M57" s="15">
-        <f>Лист1!A636</f>
+        <f>List1!A636</f>
         <v>378.90000000000003</v>
       </c>
       <c r="N57" s="15">
-        <f>Лист1!A660</f>
+        <f>List1!A660</f>
         <v>377.1</v>
       </c>
       <c r="O57" s="15">
-        <f>Лист1!A684</f>
+        <f>List1!A684</f>
         <v>371.70000000000005</v>
       </c>
       <c r="P57" s="15">
-        <f>Лист1!A708</f>
+        <f>List1!A708</f>
         <v>156.60000000000002</v>
       </c>
       <c r="Q57" s="15">
-        <f>Лист1!A732</f>
+        <f>List1!A732</f>
         <v>0</v>
       </c>
     </row>
@@ -3452,67 +3481,67 @@
         <v>14</v>
       </c>
       <c r="B58" s="15">
-        <f>Лист1!A373</f>
+        <f>List1!A373</f>
         <v>375.3</v>
       </c>
       <c r="C58" s="15">
-        <f>Лист1!A397</f>
+        <f>List1!A397</f>
         <v>280.8</v>
       </c>
       <c r="D58" s="15">
-        <f>Лист1!A421</f>
+        <f>List1!A421</f>
         <v>191.70000000000002</v>
       </c>
       <c r="E58" s="15">
-        <f>Лист1!A445</f>
+        <f>List1!A445</f>
         <v>359.1</v>
       </c>
       <c r="F58" s="15">
-        <f>Лист1!A469</f>
+        <f>List1!A469</f>
         <v>351</v>
       </c>
       <c r="G58" s="15">
-        <f>Лист1!A493</f>
+        <f>List1!A493</f>
         <v>385.20000000000005</v>
       </c>
       <c r="H58" s="15">
-        <f>Лист1!A517</f>
+        <f>List1!A517</f>
         <v>370.8</v>
       </c>
       <c r="I58" s="15">
-        <f>Лист1!A541</f>
+        <f>List1!A541</f>
         <v>387.9</v>
       </c>
       <c r="J58" s="15">
-        <f>Лист1!A565</f>
+        <f>List1!A565</f>
         <v>251.10000000000002</v>
       </c>
       <c r="K58" s="15">
-        <f>Лист1!A589</f>
+        <f>List1!A589</f>
         <v>211.5</v>
       </c>
       <c r="L58" s="15">
-        <f>Лист1!A613</f>
+        <f>List1!A613</f>
         <v>381.6</v>
       </c>
       <c r="M58" s="15">
-        <f>Лист1!A637</f>
+        <f>List1!A637</f>
         <v>382.50000000000006</v>
       </c>
       <c r="N58" s="15">
-        <f>Лист1!A661</f>
+        <f>List1!A661</f>
         <v>380.70000000000005</v>
       </c>
       <c r="O58" s="15">
-        <f>Лист1!A685</f>
+        <f>List1!A685</f>
         <v>376.20000000000005</v>
       </c>
       <c r="P58" s="15">
-        <f>Лист1!A709</f>
+        <f>List1!A709</f>
         <v>0</v>
       </c>
       <c r="Q58" s="15">
-        <f>Лист1!A733</f>
+        <f>List1!A733</f>
         <v>0</v>
       </c>
     </row>
@@ -3521,67 +3550,67 @@
         <v>15</v>
       </c>
       <c r="B59" s="15">
-        <f>Лист1!A374</f>
+        <f>List1!A374</f>
         <v>373.50000000000006</v>
       </c>
       <c r="C59" s="15">
-        <f>Лист1!A398</f>
+        <f>List1!A398</f>
         <v>268.20000000000005</v>
       </c>
       <c r="D59" s="15">
-        <f>Лист1!A422</f>
+        <f>List1!A422</f>
         <v>188.10000000000002</v>
       </c>
       <c r="E59" s="15">
-        <f>Лист1!A446</f>
+        <f>List1!A446</f>
         <v>373.50000000000006</v>
       </c>
       <c r="F59" s="15">
-        <f>Лист1!A470</f>
+        <f>List1!A470</f>
         <v>375.3</v>
       </c>
       <c r="G59" s="15">
-        <f>Лист1!A494</f>
+        <f>List1!A494</f>
         <v>392.4</v>
       </c>
       <c r="H59" s="15">
-        <f>Лист1!A518</f>
+        <f>List1!A518</f>
         <v>379.8</v>
       </c>
       <c r="I59" s="15">
-        <f>Лист1!A542</f>
+        <f>List1!A542</f>
         <v>388.8</v>
       </c>
       <c r="J59" s="15">
-        <f>Лист1!A566</f>
+        <f>List1!A566</f>
         <v>267.3</v>
       </c>
       <c r="K59" s="15">
-        <f>Лист1!A590</f>
+        <f>List1!A590</f>
         <v>223.2</v>
       </c>
       <c r="L59" s="15">
-        <f>Лист1!A614</f>
+        <f>List1!A614</f>
         <v>397.8</v>
       </c>
       <c r="M59" s="15">
-        <f>Лист1!A638</f>
+        <f>List1!A638</f>
         <v>383.40000000000003</v>
       </c>
       <c r="N59" s="15">
-        <f>Лист1!A662</f>
+        <f>List1!A662</f>
         <v>396.9</v>
       </c>
       <c r="O59" s="15">
-        <f>Лист1!A686</f>
+        <f>List1!A686</f>
         <v>370.8</v>
       </c>
       <c r="P59" s="15">
-        <f>Лист1!A710</f>
+        <f>List1!A710</f>
         <v>0</v>
       </c>
       <c r="Q59" s="15">
-        <f>Лист1!A734</f>
+        <f>List1!A734</f>
         <v>0</v>
       </c>
     </row>
@@ -3590,67 +3619,67 @@
         <v>16</v>
       </c>
       <c r="B60" s="15">
-        <f>Лист1!A375</f>
+        <f>List1!A375</f>
         <v>378.00000000000006</v>
       </c>
       <c r="C60" s="15">
-        <f>Лист1!A399</f>
+        <f>List1!A399</f>
         <v>238.5</v>
       </c>
       <c r="D60" s="15">
-        <f>Лист1!A423</f>
+        <f>List1!A423</f>
         <v>194.40000000000003</v>
       </c>
       <c r="E60" s="15">
-        <f>Лист1!A447</f>
+        <f>List1!A447</f>
         <v>372.6</v>
       </c>
       <c r="F60" s="15">
-        <f>Лист1!A471</f>
+        <f>List1!A471</f>
         <v>378.00000000000006</v>
       </c>
       <c r="G60" s="15">
-        <f>Лист1!A495</f>
+        <f>List1!A495</f>
         <v>405.90000000000003</v>
       </c>
       <c r="H60" s="15">
-        <f>Лист1!A519</f>
+        <f>List1!A519</f>
         <v>386.1</v>
       </c>
       <c r="I60" s="15">
-        <f>Лист1!A543</f>
+        <f>List1!A543</f>
         <v>401.40000000000003</v>
       </c>
       <c r="J60" s="15">
-        <f>Лист1!A567</f>
+        <f>List1!A567</f>
         <v>273.59999999999997</v>
       </c>
       <c r="K60" s="15">
-        <f>Лист1!A591</f>
+        <f>List1!A591</f>
         <v>223.2</v>
       </c>
       <c r="L60" s="15">
-        <f>Лист1!A615</f>
+        <f>List1!A615</f>
         <v>390.6</v>
       </c>
       <c r="M60" s="15">
-        <f>Лист1!A639</f>
+        <f>List1!A639</f>
         <v>376.20000000000005</v>
       </c>
       <c r="N60" s="15">
-        <f>Лист1!A663</f>
+        <f>List1!A663</f>
         <v>396</v>
       </c>
       <c r="O60" s="15">
-        <f>Лист1!A687</f>
+        <f>List1!A687</f>
         <v>378.00000000000006</v>
       </c>
       <c r="P60" s="15">
-        <f>Лист1!A711</f>
+        <f>List1!A711</f>
         <v>0</v>
       </c>
       <c r="Q60" s="15">
-        <f>Лист1!A735</f>
+        <f>List1!A735</f>
         <v>0</v>
       </c>
     </row>
@@ -3659,67 +3688,67 @@
         <v>17</v>
       </c>
       <c r="B61" s="15">
-        <f>Лист1!A376</f>
+        <f>List1!A376</f>
         <v>398.7</v>
       </c>
       <c r="C61" s="15">
-        <f>Лист1!A400</f>
+        <f>List1!A400</f>
         <v>238.5</v>
       </c>
       <c r="D61" s="15">
-        <f>Лист1!A424</f>
+        <f>List1!A424</f>
         <v>197.1</v>
       </c>
       <c r="E61" s="15">
-        <f>Лист1!A448</f>
+        <f>List1!A448</f>
         <v>361.8</v>
       </c>
       <c r="F61" s="15">
-        <f>Лист1!A472</f>
+        <f>List1!A472</f>
         <v>368.1</v>
       </c>
       <c r="G61" s="15">
-        <f>Лист1!A496</f>
+        <f>List1!A496</f>
         <v>411.3</v>
       </c>
       <c r="H61" s="15">
-        <f>Лист1!A520</f>
+        <f>List1!A520</f>
         <v>385.20000000000005</v>
       </c>
       <c r="I61" s="15">
-        <f>Лист1!A544</f>
+        <f>List1!A544</f>
         <v>397.8</v>
       </c>
       <c r="J61" s="15">
-        <f>Лист1!A568</f>
+        <f>List1!A568</f>
         <v>273.59999999999997</v>
       </c>
       <c r="K61" s="15">
-        <f>Лист1!A592</f>
+        <f>List1!A592</f>
         <v>219.60000000000002</v>
       </c>
       <c r="L61" s="15">
-        <f>Лист1!A616</f>
+        <f>List1!A616</f>
         <v>396</v>
       </c>
       <c r="M61" s="15">
-        <f>Лист1!A640</f>
+        <f>List1!A640</f>
         <v>382.50000000000006</v>
       </c>
       <c r="N61" s="15">
-        <f>Лист1!A664</f>
+        <f>List1!A664</f>
         <v>396</v>
       </c>
       <c r="O61" s="15">
-        <f>Лист1!A688</f>
+        <f>List1!A688</f>
         <v>378.90000000000003</v>
       </c>
       <c r="P61" s="15">
-        <f>Лист1!A712</f>
+        <f>List1!A712</f>
         <v>0</v>
       </c>
       <c r="Q61" s="15">
-        <f>Лист1!A736</f>
+        <f>List1!A736</f>
         <v>0</v>
       </c>
     </row>
@@ -3728,67 +3757,67 @@
         <v>18</v>
       </c>
       <c r="B62" s="15">
-        <f>Лист1!A377</f>
+        <f>List1!A377</f>
         <v>384.30000000000007</v>
       </c>
       <c r="C62" s="15">
-        <f>Лист1!A401</f>
+        <f>List1!A401</f>
         <v>226.8</v>
       </c>
       <c r="D62" s="15">
-        <f>Лист1!A425</f>
+        <f>List1!A425</f>
         <v>198</v>
       </c>
       <c r="E62" s="15">
-        <f>Лист1!A449</f>
+        <f>List1!A449</f>
         <v>378.00000000000006</v>
       </c>
       <c r="F62" s="15">
-        <f>Лист1!A473</f>
+        <f>List1!A473</f>
         <v>370.8</v>
       </c>
       <c r="G62" s="15">
-        <f>Лист1!A497</f>
+        <f>List1!A497</f>
         <v>400.5</v>
       </c>
       <c r="H62" s="15">
-        <f>Лист1!A521</f>
+        <f>List1!A521</f>
         <v>381.6</v>
       </c>
       <c r="I62" s="15">
-        <f>Лист1!A545</f>
+        <f>List1!A545</f>
         <v>382.50000000000006</v>
       </c>
       <c r="J62" s="15">
-        <f>Лист1!A569</f>
+        <f>List1!A569</f>
         <v>266.40000000000003</v>
       </c>
       <c r="K62" s="15">
-        <f>Лист1!A593</f>
+        <f>List1!A593</f>
         <v>219.60000000000002</v>
       </c>
       <c r="L62" s="15">
-        <f>Лист1!A617</f>
+        <f>List1!A617</f>
         <v>393.3</v>
       </c>
       <c r="M62" s="15">
-        <f>Лист1!A641</f>
+        <f>List1!A641</f>
         <v>384.30000000000007</v>
       </c>
       <c r="N62" s="15">
-        <f>Лист1!A665</f>
+        <f>List1!A665</f>
         <v>396</v>
       </c>
       <c r="O62" s="15">
-        <f>Лист1!A689</f>
+        <f>List1!A689</f>
         <v>378.90000000000003</v>
       </c>
       <c r="P62" s="15">
-        <f>Лист1!A713</f>
+        <f>List1!A713</f>
         <v>0</v>
       </c>
       <c r="Q62" s="15">
-        <f>Лист1!A737</f>
+        <f>List1!A737</f>
         <v>0</v>
       </c>
     </row>
@@ -3797,67 +3826,67 @@
         <v>19</v>
       </c>
       <c r="B63" s="15">
-        <f>Лист1!A378</f>
+        <f>List1!A378</f>
         <v>369</v>
       </c>
       <c r="C63" s="15">
-        <f>Лист1!A402</f>
+        <f>List1!A402</f>
         <v>197.1</v>
       </c>
       <c r="D63" s="15">
-        <f>Лист1!A426</f>
+        <f>List1!A426</f>
         <v>195.3</v>
       </c>
       <c r="E63" s="15">
-        <f>Лист1!A450</f>
+        <f>List1!A450</f>
         <v>345.6</v>
       </c>
       <c r="F63" s="15">
-        <f>Лист1!A474</f>
+        <f>List1!A474</f>
         <v>364.5</v>
       </c>
       <c r="G63" s="15">
-        <f>Лист1!A498</f>
+        <f>List1!A498</f>
         <v>368.1</v>
       </c>
       <c r="H63" s="15">
-        <f>Лист1!A522</f>
+        <f>List1!A522</f>
         <v>356.40000000000003</v>
       </c>
       <c r="I63" s="15">
-        <f>Лист1!A546</f>
+        <f>List1!A546</f>
         <v>347.40000000000003</v>
       </c>
       <c r="J63" s="15">
-        <f>Лист1!A570</f>
+        <f>List1!A570</f>
         <v>252.00000000000003</v>
       </c>
       <c r="K63" s="15">
-        <f>Лист1!A594</f>
+        <f>List1!A594</f>
         <v>213.29999999999998</v>
       </c>
       <c r="L63" s="15">
-        <f>Лист1!A618</f>
+        <f>List1!A618</f>
         <v>369.90000000000003</v>
       </c>
       <c r="M63" s="15">
-        <f>Лист1!A642</f>
+        <f>List1!A642</f>
         <v>375.3</v>
       </c>
       <c r="N63" s="15">
-        <f>Лист1!A666</f>
+        <f>List1!A666</f>
         <v>383.40000000000003</v>
       </c>
       <c r="O63" s="15">
-        <f>Лист1!A690</f>
+        <f>List1!A690</f>
         <v>330.3</v>
       </c>
       <c r="P63" s="15">
-        <f>Лист1!A714</f>
+        <f>List1!A714</f>
         <v>0</v>
       </c>
       <c r="Q63" s="15">
-        <f>Лист1!A738</f>
+        <f>List1!A738</f>
         <v>0</v>
       </c>
     </row>
@@ -3866,67 +3895,67 @@
         <v>20</v>
       </c>
       <c r="B64" s="15">
-        <f>Лист1!A379</f>
+        <f>List1!A379</f>
         <v>324</v>
       </c>
       <c r="C64" s="15">
-        <f>Лист1!A403</f>
+        <f>List1!A403</f>
         <v>197.1</v>
       </c>
       <c r="D64" s="15">
-        <f>Лист1!A427</f>
+        <f>List1!A427</f>
         <v>197.1</v>
       </c>
       <c r="E64" s="15">
-        <f>Лист1!A451</f>
+        <f>List1!A451</f>
         <v>293.40000000000003</v>
       </c>
       <c r="F64" s="15">
-        <f>Лист1!A475</f>
+        <f>List1!A475</f>
         <v>303.3</v>
       </c>
       <c r="G64" s="15">
-        <f>Лист1!A499</f>
+        <f>List1!A499</f>
         <v>297.90000000000003</v>
       </c>
       <c r="H64" s="15">
-        <f>Лист1!A523</f>
+        <f>List1!A523</f>
         <v>280.8</v>
       </c>
       <c r="I64" s="15">
-        <f>Лист1!A547</f>
+        <f>List1!A547</f>
         <v>305.10000000000002</v>
       </c>
       <c r="J64" s="15">
-        <f>Лист1!A571</f>
+        <f>List1!A571</f>
         <v>238.5</v>
       </c>
       <c r="K64" s="15">
-        <f>Лист1!A595</f>
+        <f>List1!A595</f>
         <v>199.8</v>
       </c>
       <c r="L64" s="15">
-        <f>Лист1!A619</f>
+        <f>List1!A619</f>
         <v>308.7</v>
       </c>
       <c r="M64" s="15">
-        <f>Лист1!A643</f>
+        <f>List1!A643</f>
         <v>318.59999999999997</v>
       </c>
       <c r="N64" s="15">
-        <f>Лист1!A667</f>
+        <f>List1!A667</f>
         <v>297</v>
       </c>
       <c r="O64" s="15">
-        <f>Лист1!A691</f>
+        <f>List1!A691</f>
         <v>288</v>
       </c>
       <c r="P64" s="15">
-        <f>Лист1!A715</f>
+        <f>List1!A715</f>
         <v>0</v>
       </c>
       <c r="Q64" s="15">
-        <f>Лист1!A739</f>
+        <f>List1!A739</f>
         <v>0</v>
       </c>
     </row>
@@ -3935,67 +3964,67 @@
         <v>21</v>
       </c>
       <c r="B65" s="15">
-        <f>Лист1!A380</f>
+        <f>List1!A380</f>
         <v>287.10000000000002</v>
       </c>
       <c r="C65" s="15">
-        <f>Лист1!A404</f>
+        <f>List1!A404</f>
         <v>198.9</v>
       </c>
       <c r="D65" s="15">
-        <f>Лист1!A428</f>
+        <f>List1!A428</f>
         <v>179.10000000000002</v>
       </c>
       <c r="E65" s="15">
-        <f>Лист1!A452</f>
+        <f>List1!A452</f>
         <v>261.00000000000006</v>
       </c>
       <c r="F65" s="15">
-        <f>Лист1!A476</f>
+        <f>List1!A476</f>
         <v>270.00000000000006</v>
       </c>
       <c r="G65" s="15">
-        <f>Лист1!A500</f>
+        <f>List1!A500</f>
         <v>265.50000000000006</v>
       </c>
       <c r="H65" s="15">
-        <f>Лист1!A524</f>
+        <f>List1!A524</f>
         <v>262.8</v>
       </c>
       <c r="I65" s="15">
-        <f>Лист1!A548</f>
+        <f>List1!A548</f>
         <v>268.20000000000005</v>
       </c>
       <c r="J65" s="15">
-        <f>Лист1!A572</f>
+        <f>List1!A572</f>
         <v>224.1</v>
       </c>
       <c r="K65" s="15">
-        <f>Лист1!A596</f>
+        <f>List1!A596</f>
         <v>202.5</v>
       </c>
       <c r="L65" s="15">
-        <f>Лист1!A620</f>
+        <f>List1!A620</f>
         <v>268.20000000000005</v>
       </c>
       <c r="M65" s="15">
-        <f>Лист1!A644</f>
+        <f>List1!A644</f>
         <v>277.2</v>
       </c>
       <c r="N65" s="15">
-        <f>Лист1!A668</f>
+        <f>List1!A668</f>
         <v>269.10000000000002</v>
       </c>
       <c r="O65" s="15">
-        <f>Лист1!A692</f>
+        <f>List1!A692</f>
         <v>270.90000000000003</v>
       </c>
       <c r="P65" s="15">
-        <f>Лист1!A716</f>
+        <f>List1!A716</f>
         <v>0</v>
       </c>
       <c r="Q65" s="15">
-        <f>Лист1!A740</f>
+        <f>List1!A740</f>
         <v>0</v>
       </c>
     </row>
@@ -4004,67 +4033,67 @@
         <v>22</v>
       </c>
       <c r="B66" s="15">
-        <f>Лист1!A381</f>
+        <f>List1!A381</f>
         <v>126.9</v>
       </c>
       <c r="C66" s="15">
-        <f>Лист1!A405</f>
+        <f>List1!A405</f>
         <v>192.60000000000002</v>
       </c>
       <c r="D66" s="15">
-        <f>Лист1!A429</f>
+        <f>List1!A429</f>
         <v>160.20000000000002</v>
       </c>
       <c r="E66" s="15">
-        <f>Лист1!A453</f>
+        <f>List1!A453</f>
         <v>239.4</v>
       </c>
       <c r="F66" s="15">
-        <f>Лист1!A477</f>
+        <f>List1!A477</f>
         <v>259.20000000000005</v>
       </c>
       <c r="G66" s="15">
-        <f>Лист1!A501</f>
+        <f>List1!A501</f>
         <v>246.60000000000002</v>
       </c>
       <c r="H66" s="15">
-        <f>Лист1!A525</f>
+        <f>List1!A525</f>
         <v>248.40000000000003</v>
       </c>
       <c r="I66" s="15">
-        <f>Лист1!A549</f>
+        <f>List1!A549</f>
         <v>252.00000000000003</v>
       </c>
       <c r="J66" s="15">
-        <f>Лист1!A573</f>
+        <f>List1!A573</f>
         <v>203.4</v>
       </c>
       <c r="K66" s="15">
-        <f>Лист1!A597</f>
+        <f>List1!A597</f>
         <v>187.20000000000002</v>
       </c>
       <c r="L66" s="15">
-        <f>Лист1!A621</f>
+        <f>List1!A621</f>
         <v>238.5</v>
       </c>
       <c r="M66" s="15">
-        <f>Лист1!A645</f>
+        <f>List1!A645</f>
         <v>257.40000000000003</v>
       </c>
       <c r="N66" s="15">
-        <f>Лист1!A669</f>
+        <f>List1!A669</f>
         <v>243.00000000000003</v>
       </c>
       <c r="O66" s="15">
-        <f>Лист1!A693</f>
+        <f>List1!A693</f>
         <v>255.60000000000002</v>
       </c>
       <c r="P66" s="15">
-        <f>Лист1!A717</f>
+        <f>List1!A717</f>
         <v>0</v>
       </c>
       <c r="Q66" s="15">
-        <f>Лист1!A741</f>
+        <f>List1!A741</f>
         <v>0</v>
       </c>
     </row>
@@ -4073,67 +4102,67 @@
         <v>23</v>
       </c>
       <c r="B67" s="15">
-        <f>Лист1!A382</f>
+        <f>List1!A382</f>
         <v>108.89999999999999</v>
       </c>
       <c r="C67" s="15">
-        <f>Лист1!A406</f>
+        <f>List1!A406</f>
         <v>173.70000000000002</v>
       </c>
       <c r="D67" s="15">
-        <f>Лист1!A430</f>
+        <f>List1!A430</f>
         <v>156.60000000000002</v>
       </c>
       <c r="E67" s="15">
-        <f>Лист1!A454</f>
+        <f>List1!A454</f>
         <v>206.1</v>
       </c>
       <c r="F67" s="15">
-        <f>Лист1!A478</f>
+        <f>List1!A478</f>
         <v>231.3</v>
       </c>
       <c r="G67" s="15">
-        <f>Лист1!A502</f>
+        <f>List1!A502</f>
         <v>221.4</v>
       </c>
       <c r="H67" s="15">
-        <f>Лист1!A526</f>
+        <f>List1!A526</f>
         <v>233.1</v>
       </c>
       <c r="I67" s="15">
-        <f>Лист1!A550</f>
+        <f>List1!A550</f>
         <v>217.79999999999998</v>
       </c>
       <c r="J67" s="15">
-        <f>Лист1!A574</f>
+        <f>List1!A574</f>
         <v>184.5</v>
       </c>
       <c r="K67" s="15">
-        <f>Лист1!A598</f>
+        <f>List1!A598</f>
         <v>168.3</v>
       </c>
       <c r="L67" s="15">
-        <f>Лист1!A622</f>
+        <f>List1!A622</f>
         <v>206.1</v>
       </c>
       <c r="M67" s="15">
-        <f>Лист1!A646</f>
+        <f>List1!A646</f>
         <v>215.1</v>
       </c>
       <c r="N67" s="15">
-        <f>Лист1!A670</f>
+        <f>List1!A670</f>
         <v>214.20000000000002</v>
       </c>
       <c r="O67" s="15">
-        <f>Лист1!A694</f>
+        <f>List1!A694</f>
         <v>231.3</v>
       </c>
       <c r="P67" s="15">
-        <f>Лист1!A718</f>
+        <f>List1!A718</f>
         <v>0</v>
       </c>
       <c r="Q67" s="15">
-        <f>Лист1!A742</f>
+        <f>List1!A742</f>
         <v>0</v>
       </c>
     </row>
@@ -4142,67 +4171,67 @@
         <v>24</v>
       </c>
       <c r="B68" s="15">
-        <f>Лист1!A383</f>
+        <f>List1!A383</f>
         <v>136.80000000000001</v>
       </c>
       <c r="C68" s="15">
-        <f>Лист1!A407</f>
+        <f>List1!A407</f>
         <v>177.3</v>
       </c>
       <c r="D68" s="15">
-        <f>Лист1!A431</f>
+        <f>List1!A431</f>
         <v>140.4</v>
       </c>
       <c r="E68" s="15">
-        <f>Лист1!A455</f>
+        <f>List1!A455</f>
         <v>194.40000000000003</v>
       </c>
       <c r="F68" s="15">
-        <f>Лист1!A479</f>
+        <f>List1!A479</f>
         <v>206.1</v>
       </c>
       <c r="G68" s="15">
-        <f>Лист1!A503</f>
+        <f>List1!A503</f>
         <v>199.8</v>
       </c>
       <c r="H68" s="15">
-        <f>Лист1!A527</f>
+        <f>List1!A527</f>
         <v>198.00000000000003</v>
       </c>
       <c r="I68" s="15">
-        <f>Лист1!A551</f>
+        <f>List1!A551</f>
         <v>201.6</v>
       </c>
       <c r="J68" s="15">
-        <f>Лист1!A575</f>
+        <f>List1!A575</f>
         <v>183.60000000000002</v>
       </c>
       <c r="K68" s="15">
-        <f>Лист1!A599</f>
+        <f>List1!A599</f>
         <v>162.9</v>
       </c>
       <c r="L68" s="15">
-        <f>Лист1!A623</f>
+        <f>List1!A623</f>
         <v>186.3</v>
       </c>
       <c r="M68" s="15">
-        <f>Лист1!A647</f>
+        <f>List1!A647</f>
         <v>192.60000000000002</v>
       </c>
       <c r="N68" s="15">
-        <f>Лист1!A671</f>
+        <f>List1!A671</f>
         <v>198.9</v>
       </c>
       <c r="O68" s="15">
-        <f>Лист1!A695</f>
+        <f>List1!A695</f>
         <v>208.8</v>
       </c>
       <c r="P68" s="15">
-        <f>Лист1!A719</f>
+        <f>List1!A719</f>
         <v>0</v>
       </c>
       <c r="Q68" s="15">
-        <f>Лист1!A743</f>
+        <f>List1!A743</f>
         <v>0</v>
       </c>
     </row>
@@ -4211,67 +4240,67 @@
         <v>25</v>
       </c>
       <c r="B69" s="15">
-        <f>Лист1!A384</f>
+        <f>List1!A384</f>
         <v>156.6</v>
       </c>
       <c r="C69" s="15">
-        <f>Лист1!A408</f>
+        <f>List1!A408</f>
         <v>164.7</v>
       </c>
       <c r="D69" s="15">
-        <f>Лист1!A432</f>
+        <f>List1!A432</f>
         <v>137.69999999999999</v>
       </c>
       <c r="E69" s="15">
-        <f>Лист1!A456</f>
+        <f>List1!A456</f>
         <v>183.60000000000002</v>
       </c>
       <c r="F69" s="15">
-        <f>Лист1!A480</f>
+        <f>List1!A480</f>
         <v>186.3</v>
       </c>
       <c r="G69" s="15">
-        <f>Лист1!A504</f>
+        <f>List1!A504</f>
         <v>185.4</v>
       </c>
       <c r="H69" s="15">
-        <f>Лист1!A528</f>
+        <f>List1!A528</f>
         <v>188.10000000000002</v>
       </c>
       <c r="I69" s="15">
-        <f>Лист1!A552</f>
+        <f>List1!A552</f>
         <v>190.8</v>
       </c>
       <c r="J69" s="15">
-        <f>Лист1!A576</f>
+        <f>List1!A576</f>
         <v>171.9</v>
       </c>
       <c r="K69" s="15">
-        <f>Лист1!A600</f>
+        <f>List1!A600</f>
         <v>159.30000000000001</v>
       </c>
       <c r="L69" s="15">
-        <f>Лист1!A624</f>
+        <f>List1!A624</f>
         <v>180.9</v>
       </c>
       <c r="M69" s="15">
-        <f>Лист1!A648</f>
+        <f>List1!A648</f>
         <v>182.70000000000002</v>
       </c>
       <c r="N69" s="15">
-        <f>Лист1!A672</f>
+        <f>List1!A672</f>
         <v>194.4</v>
       </c>
       <c r="O69" s="15">
-        <f>Лист1!A696</f>
+        <f>List1!A696</f>
         <v>189.9</v>
       </c>
       <c r="P69" s="15">
-        <f>Лист1!A720</f>
+        <f>List1!A720</f>
         <v>0</v>
       </c>
       <c r="Q69" s="15">
-        <f>Лист1!A744</f>
+        <f>List1!A744</f>
         <v>0</v>
       </c>
     </row>
@@ -4284,59 +4313,59 @@
         <v>6118.2</v>
       </c>
       <c r="C70" s="15">
-        <f t="shared" ref="C70:P70" si="1">SUM(C46:C69)</f>
+        <f t="shared" ref="C70:P70" si="3">SUM(C46:C69)</f>
         <v>4932</v>
       </c>
       <c r="D70" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4102.2</v>
       </c>
       <c r="E70" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5841.9000000000005</v>
       </c>
       <c r="F70" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6205.5000000000009</v>
       </c>
       <c r="G70" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6506.1</v>
       </c>
       <c r="H70" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6466.5000000000018</v>
       </c>
       <c r="I70" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6533.1000000000013</v>
       </c>
       <c r="J70" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5107.5</v>
       </c>
       <c r="K70" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4474.7999999999993</v>
       </c>
       <c r="L70" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6278.4000000000005</v>
       </c>
       <c r="M70" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6566.4000000000005</v>
       </c>
       <c r="N70" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6489.8999999999987</v>
       </c>
       <c r="O70" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6445.7999999999993</v>
       </c>
       <c r="P70" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2430.0000000000005</v>
       </c>
       <c r="Q70" s="15">
@@ -4348,15 +4377,15 @@
       <c r="A72" t="s">
         <v>27</v>
       </c>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="25"/>
-      <c r="E72" s="24">
+      <c r="C72" s="23"/>
+      <c r="E72" s="22">
         <f>SUM(B40:P40,B70:Q70)</f>
-        <v>173563.19999999995</v>
-      </c>
-      <c r="F72" s="24"/>
+        <v>173635.19999999995</v>
+      </c>
+      <c r="F72" s="22"/>
       <c r="G72" t="s">
         <v>28</v>
       </c>
@@ -4420,12 +4449,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.43307086614173229" right="0.35433070866141736" top="0.69" bottom="0.43307086614173229" header="0.19685039370078741" footer="0.23622047244094491"/>
-  <pageSetup paperSize="9" scale="95" fitToHeight="2" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" fitToHeight="2" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="40" max="16383" man="1"/>
+    <brk id="43" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -4434,13 +4463,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A729"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A703" workbookViewId="0">
+      <selection activeCell="A722" sqref="A722"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" ht="14.3" x14ac:dyDescent="0.25">
       <c r="A1" s="21">
-        <v>178.20000000000002</v>
+        <v>250.2</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="14.3" x14ac:dyDescent="0.25">
